--- a/Consumer/Chipotle Mexican Grill.xlsx
+++ b/Consumer/Chipotle Mexican Grill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385EF3A2-8339-D84D-8831-596D7855E088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B762C8-FA19-6A40-96A5-62C96165B3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="500" windowWidth="27620" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -315,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Chipotle Mexican Grill</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -858,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -928,13 +962,7 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -967,16 +995,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -989,15 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2229,6 +2256,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1pxbh&amp;q=XNYS%3aCMG&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>CHIPOTLE MEXICAN GRILL, INC. (XNYS:CMG)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1pxbh</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>2077.2899000000002</v>
+    <v>1196.28</v>
+    <v>1.3409</v>
+    <v>-0.18</v>
+    <v>-8.8549999999999998E-5</v>
+    <v>2.34</v>
+    <v>1.1509999999999999E-3</v>
+    <v>USD</v>
+    <v>Chipotle Mexican Grill, Inc., together with its subsidiaries, owns and operates Chipotle Mexican Grill restaurants. The Company’s Chipotle Mexican Grill restaurants serve a relevant menu of burritos, burrito bowls (a burrito without the tortilla), quesadillas, tacos, and salads. The Company has approximately 3,200 restaurants in the United States, Canada, the United Kingdom, France and Germany. The Company manages its operations based on eight regions. It sells gift cards, which do not have expiration dates. In its Chipotle restaurants, the Company serves only meats and brands these meats as Responsibly Raised. The Company’s subsidiaries include Chipotle Mexican Grill Canada Corp., Chipotle Mexican Grill France SAS, Chipotle Mexican Grill Germany GMBH, Chipotle Mexican Grill of Berwyn Heights, LLC, Chipotle Mexican Grill of Colorado, LLC, Chipotle Mexican Grill of Kansas, LLC, Chipotle Mexican Grill of Maryland, LLC, SP Kitchens, LLC and Chipotle Mexican Grill Texas Holdings, LLC.</v>
+    <v>104958</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>610 Newport Center Dr, Suite 1100, NEWPORT BEACH, CA, 92660 US</v>
+    <v>2046.96</v>
+    <v>Hotels &amp; Entertainment Services</v>
+    <v>Stock</v>
+    <v>45055.981408055472</v>
+    <v>0</v>
+    <v>2030.91</v>
+    <v>56080764174</v>
+    <v>CHIPOTLE MEXICAN GRILL, INC.</v>
+    <v>CHIPOTLE MEXICAN GRILL, INC.</v>
+    <v>2040.08</v>
+    <v>54.988199999999999</v>
+    <v>2032.84</v>
+    <v>2032.66</v>
+    <v>2035</v>
+    <v>27589840</v>
+    <v>CMG</v>
+    <v>CHIPOTLE MEXICAN GRILL, INC. (XNYS:CMG)</v>
+    <v>137342</v>
+    <v>352503</v>
+    <v>1998</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2529,10 +2996,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA94" sqref="AA94"/>
+      <selection pane="bottomRight" activeCell="AA84" sqref="AA84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2543,8 +3010,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2001</v>
@@ -2800,21 +3267,21 @@
         <v>16258000000</v>
       </c>
       <c r="AC3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AE3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AF3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3080,16 +3547,16 @@
         <v>3374024000</v>
       </c>
       <c r="AC6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AE6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AF6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3252,7 +3719,7 @@
     </row>
     <row r="9" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3343,16 +3810,16 @@
         <v>0</v>
       </c>
       <c r="AC9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AE9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AF9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3584,21 +4051,21 @@
         <v>564191000</v>
       </c>
       <c r="AC12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AD12" s="19" t="s">
+      <c r="AE12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AE12" s="19" t="s">
+      <c r="AF12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AF12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3847,16 +4314,16 @@
         <v>2213621000</v>
       </c>
       <c r="AC15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AD15" s="19" t="s">
+      <c r="AE15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AE15" s="19" t="s">
+      <c r="AF15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AF15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3935,15 +4402,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>4.9605936637631718</v>
+        <v>6.4948493782957319</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>47.639809098199201</v>
+        <v>62.37426515374802</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>50.749098061053417</v>
+        <v>66.445222151265085</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4008,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>3617000</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>7820000</v>
       </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>21128000</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -4088,7 +4555,7 @@
         <v>286826000</v>
       </c>
       <c r="AC18" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -4161,14 +4628,14 @@
       <c r="W19" s="10">
         <v>1468357000</v>
       </c>
-      <c r="AC19" s="67">
+      <c r="AC19" s="55">
         <f>W40-W56-W61</f>
         <v>-2832274000</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4826,7 +5293,7 @@
     </row>
     <row r="29" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5271,7 +5738,7 @@
     </row>
     <row r="35" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -8485,7 +8952,7 @@
     </row>
     <row r="80" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:W80" si="33">B79/B3</f>
@@ -8789,7 +9256,7 @@
         <v>-3011000</v>
       </c>
       <c r="AD83" s="61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE83" s="62"/>
     </row>
@@ -8864,7 +9331,7 @@
         <v>18208000</v>
       </c>
       <c r="AD84" s="63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE84" s="64"/>
     </row>
@@ -8939,11 +9406,11 @@
         <v>92</v>
       </c>
       <c r="AD85" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE85" s="24">
         <f>W17</f>
-        <v>0</v>
+        <v>21128000</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -9017,7 +9484,7 @@
         <v>92</v>
       </c>
       <c r="AD86" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE86" s="24">
         <f>W56</f>
@@ -9095,7 +9562,7 @@
         <v>1323179000</v>
       </c>
       <c r="AD87" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE87" s="24">
         <f>W61</f>
@@ -9173,16 +9640,16 @@
         <v>-479164000</v>
       </c>
       <c r="AD88" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE88" s="33">
         <f>AE85/(AE86+AE87)</f>
-        <v>0</v>
+        <v>5.6622027598146546E-3</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:W89" si="34">(-1*B88)/B3</f>
@@ -9273,7 +9740,7 @@
         <v>5.549314552572588E-2</v>
       </c>
       <c r="AD89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE89" s="24">
         <f>W27</f>
@@ -9429,7 +9896,7 @@
         <v>-614416000</v>
       </c>
       <c r="AD91" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE91" s="33">
         <f>AE89/AE90</f>
@@ -9507,11 +9974,11 @@
         <v>263548000</v>
       </c>
       <c r="AD92" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE92" s="35">
         <f>AE88*(1-AE91)</f>
-        <v>0</v>
+        <v>4.3087250047202453E-3</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -9585,7 +10052,7 @@
         <v>92</v>
       </c>
       <c r="AD93" s="63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE93" s="64"/>
     </row>
@@ -9660,7 +10127,7 @@
         <v>-830032000</v>
       </c>
       <c r="AD94" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE94" s="36">
         <v>4.095E-2</v>
@@ -9736,11 +10203,12 @@
       <c r="W95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD95" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE95" s="38">
-        <v>1.3</v>
+      <c r="AD95" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE95" s="56" cm="1">
+        <f t="array" ref="AE95">_FV(A1,"Beta")</f>
+        <v>1.3409</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -9814,7 +10282,7 @@
         <v>92</v>
       </c>
       <c r="AD96" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE96" s="36">
         <v>8.4000000000000005E-2</v>
@@ -9891,11 +10359,11 @@
         <v>-830140000</v>
       </c>
       <c r="AD97" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE97" s="35">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.6915000000000001E-2</v>
+        <v>9.8675745000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -9969,7 +10437,7 @@
         <v>92</v>
       </c>
       <c r="AD98" s="63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AE98" s="64"/>
     </row>
@@ -10044,7 +10512,7 @@
         <v>-99264000</v>
       </c>
       <c r="AD99" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE99" s="24">
         <f>AE86+AE87</f>
@@ -10122,11 +10590,11 @@
         <v>-929404000</v>
       </c>
       <c r="AD100" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE100" s="33">
         <f>AE99/AE103</f>
-        <v>8.0134377306616794E-2</v>
+        <v>6.2385460009277208E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10199,11 +10667,12 @@
       <c r="W101" s="1">
         <v>-1007000</v>
       </c>
-      <c r="AD101" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE101" s="39">
-        <v>42833000000</v>
+      <c r="AD101" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE101" s="48" cm="1">
+        <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
+        <v>56080764174</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10277,11 +10746,11 @@
         <v>-437264000</v>
       </c>
       <c r="AD102" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AE102" s="33">
         <f>AE101/AE103</f>
-        <v>0.91986562269338323</v>
+        <v>0.93761453999072275</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10355,11 +10824,11 @@
         <v>846230000</v>
       </c>
       <c r="AD103" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE103" s="40">
+        <v>143</v>
+      </c>
+      <c r="AE103" s="37">
         <f>AE99+AE101</f>
-        <v>46564410000</v>
+        <v>59812174174</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10433,13 +10902,13 @@
         <v>408966000</v>
       </c>
       <c r="AD104" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE104" s="64"/>
     </row>
     <row r="105" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -10533,11 +11002,11 @@
       <c r="AB105" s="15"/>
       <c r="AC105" s="15"/>
       <c r="AD105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>8.9148776823329237E-2</v>
+        <v>9.2788615047889808E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10610,33 +11079,33 @@
       <c r="W106" s="1">
         <v>844015000</v>
       </c>
-      <c r="X106" s="41">
+      <c r="X106" s="57">
         <f>W106*(1+$AE$106)</f>
         <v>957991424.4013803</v>
       </c>
-      <c r="Y106" s="41">
+      <c r="Y106" s="57">
         <f t="shared" ref="Y106:AB106" si="44">X106*(1+$AE$106)</f>
         <v>1087359311.4181449</v>
       </c>
-      <c r="Z106" s="41">
+      <c r="Z106" s="57">
         <f t="shared" si="44"/>
         <v>1234197135.8110611</v>
       </c>
-      <c r="AA106" s="41">
+      <c r="AA106" s="57">
         <f t="shared" si="44"/>
         <v>1400864051.1457052</v>
       </c>
-      <c r="AB106" s="41">
+      <c r="AB106" s="57">
         <f t="shared" si="44"/>
         <v>1590037792.8706982</v>
       </c>
-      <c r="AC106" s="42" t="s">
+      <c r="AC106" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD106" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="AD106" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE106" s="44">
+      <c r="AE106" s="40">
         <f>(SUM(X4:AB4)/5)</f>
         <v>0.13504075686022204</v>
       </c>
@@ -10665,138 +11134,139 @@
       <c r="U107" s="13"/>
       <c r="V107" s="13"/>
       <c r="W107" s="13"/>
-      <c r="X107" s="42"/>
-      <c r="Y107" s="42"/>
-      <c r="Z107" s="42"/>
-      <c r="AA107" s="42"/>
-      <c r="AB107" s="45">
+      <c r="X107" s="38"/>
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="38"/>
+      <c r="AA107" s="38"/>
+      <c r="AB107" s="41">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>25406388374.029823</v>
-      </c>
-      <c r="AC107" s="46" t="s">
+        <v>24042219132.830616</v>
+      </c>
+      <c r="AC107" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD107" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="AD107" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE107" s="48">
+      <c r="AE107" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="45">
+      <c r="X108" s="41">
         <f t="shared" ref="X108:Z108" si="45">X107+X106</f>
         <v>957991424.4013803</v>
       </c>
-      <c r="Y108" s="45">
+      <c r="Y108" s="41">
         <f t="shared" si="45"/>
         <v>1087359311.4181449</v>
       </c>
-      <c r="Z108" s="45">
+      <c r="Z108" s="41">
         <f t="shared" si="45"/>
         <v>1234197135.8110611</v>
       </c>
-      <c r="AA108" s="45">
+      <c r="AA108" s="41">
         <f>AA107+AA106</f>
         <v>1400864051.1457052</v>
       </c>
-      <c r="AB108" s="45">
+      <c r="AB108" s="41">
         <f>AB107+AB106</f>
-        <v>26996426166.90052</v>
-      </c>
-      <c r="AC108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD108" s="49" t="s">
+        <v>25632256925.701313</v>
+      </c>
+      <c r="AC108" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD108" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE108" s="46">
+        <f>AE105</f>
+        <v>9.2788615047889808E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="X109" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="AE108" s="50">
-        <f>AE105</f>
-        <v>8.9148776823329237E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="65" t="s">
+      <c r="Y109" s="60"/>
+    </row>
+    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="X110" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="Y109" s="66"/>
-    </row>
-    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="51" t="s">
+      <c r="Y110" s="48">
+        <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
+        <v>20162990349.573036</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="X111" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="Y110" s="52">
-        <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>21361490769.649616</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y111" s="52">
+      <c r="Y111" s="48">
         <f>W40</f>
         <v>899136000</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y112" s="52">
+      <c r="X112" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y112" s="48">
         <f>AE99</f>
         <v>3731410000</v>
       </c>
     </row>
     <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="51" t="s">
+      <c r="X113" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y113" s="48">
+        <f>Y110+Y111-Y112</f>
+        <v>17330716349.573036</v>
+      </c>
+    </row>
+    <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X114" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="Y113" s="52">
-        <f>Y110+Y111-Y112</f>
-        <v>18529216769.649616</v>
-      </c>
-    </row>
-    <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y114" s="53">
+      <c r="Y114" s="49">
         <f>W34*(1+(5*AC16))</f>
         <v>27578069.91234573</v>
       </c>
     </row>
     <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="54" t="s">
+      <c r="X115" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y115" s="51">
+        <f>Y113/Y114</f>
+        <v>628.42383113310939</v>
+      </c>
+    </row>
+    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X116" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="Y115" s="55">
-        <f>Y113/Y114</f>
-        <v>671.88229011468059</v>
-      </c>
-    </row>
-    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="56" t="s">
+      <c r="Y116" s="58" cm="1">
+        <f t="array" ref="Y116">_FV(A1,"Price")</f>
+        <v>2032.66</v>
+      </c>
+    </row>
+    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X117" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="Y116" s="57">
-        <v>1550.71</v>
-      </c>
-    </row>
-    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="58" t="s">
+      <c r="Y117" s="53">
+        <f>Y115/Y116-1</f>
+        <v>-0.69083672078305791</v>
+      </c>
+    </row>
+    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X118" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="Y117" s="59">
-        <f>Y115/Y116-1</f>
-        <v>-0.56672602219971457</v>
-      </c>
-    </row>
-    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y118" s="60" t="str">
+      <c r="Y118" s="54" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -10811,54 +11281,53 @@
     <mergeCell ref="AD104:AE104"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/CMG" display="ROIC.AI | CMG" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B36" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B74" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C36" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C74" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D36" r:id="rId6" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D74" r:id="rId7" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E36" r:id="rId8" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E74" r:id="rId9" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F36" r:id="rId10" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F74" r:id="rId11" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="G36" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312507038325/d10k.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G74" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312507038325/d10k.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H36" r:id="rId14" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312508038764/d10k.htm" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H74" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312508038764/d10k.htm" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I36" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312509033199/0001193125-09-033199-index.html" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I74" r:id="rId17" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312509033199/0001193125-09-033199-index.html" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J36" r:id="rId18" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312510035029/0001193125-10-035029-index.html" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J74" r:id="rId19" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312510035029/0001193125-10-035029-index.html" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K36" r:id="rId20" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312511039010/d10k.htm" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K74" r:id="rId21" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312511039010/d10k.htm" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L36" r:id="rId22" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312512052969/0001193125-12-052969-index.html" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="L74" r:id="rId23" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312512052969/0001193125-12-052969-index.html" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M36" r:id="rId24" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312513046377/0001193125-13-046377-index.html" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M74" r:id="rId25" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312513046377/0001193125-13-046377-index.html" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="N36" r:id="rId26" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312514035451/d629534d10k.htm" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="N74" r:id="rId27" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312514035451/d629534d10k.htm" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="O36" r:id="rId28" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312515033771/d861905d10k.htm" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O74" r:id="rId29" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312515033771/d861905d10k.htm" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="P36" r:id="rId30" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809016000058/0001058090-16-000058-index.html" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="P74" r:id="rId31" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809016000058/0001058090-16-000058-index.html" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q36" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809017000009/0001058090-17-000009-index.html" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q74" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809017000009/0001058090-17-000009-index.html" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="R36" r:id="rId34" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809018000018/0001058090-18-000018-index.html" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="R74" r:id="rId35" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809018000018/0001058090-18-000018-index.html" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="S36" r:id="rId36" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809019000007/0001058090-19-000007-index.html" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="S74" r:id="rId37" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809019000007/0001058090-19-000007-index.html" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="T36" r:id="rId38" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809020000010/0001058090-20-000010-index.html" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="T74" r:id="rId39" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809020000010/0001058090-20-000010-index.html" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="U36" r:id="rId40" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809021000010/0001058090-21-000010-index.htm" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="U74" r:id="rId41" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809021000010/0001058090-21-000010-index.htm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="V36" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809022000011/0001058090-22-000011-index.htm" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="V74" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809022000011/0001058090-22-000011-index.htm" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="W36" r:id="rId44" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809023000010/0001058090-23-000010-index.htm" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="W74" r:id="rId45" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809023000010/0001058090-23-000010-index.htm" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="X1" r:id="rId46" display="https://finbox.com/NYSE:CMG/explorer/revenue_proj" xr:uid="{E18C0759-933E-EF40-BC09-EE69D891C2E4}"/>
+    <hyperlink ref="B36" r:id="rId1" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B74" r:id="rId2" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C36" r:id="rId3" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C74" r:id="rId4" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D36" r:id="rId5" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D74" r:id="rId6" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E36" r:id="rId7" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E74" r:id="rId8" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F36" r:id="rId9" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F74" r:id="rId10" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G36" r:id="rId11" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312507038325/d10k.htm" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G74" r:id="rId12" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312507038325/d10k.htm" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H36" r:id="rId13" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312508038764/d10k.htm" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H74" r:id="rId14" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312508038764/d10k.htm" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I36" r:id="rId15" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312509033199/0001193125-09-033199-index.html" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I74" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312509033199/0001193125-09-033199-index.html" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J36" r:id="rId17" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312510035029/0001193125-10-035029-index.html" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J74" r:id="rId18" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312510035029/0001193125-10-035029-index.html" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K36" r:id="rId19" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312511039010/d10k.htm" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K74" r:id="rId20" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312511039010/d10k.htm" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L36" r:id="rId21" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312512052969/0001193125-12-052969-index.html" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L74" r:id="rId22" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312512052969/0001193125-12-052969-index.html" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M36" r:id="rId23" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312513046377/0001193125-13-046377-index.html" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M74" r:id="rId24" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312513046377/0001193125-13-046377-index.html" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N36" r:id="rId25" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312514035451/d629534d10k.htm" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N74" r:id="rId26" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312514035451/d629534d10k.htm" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="O36" r:id="rId27" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312515033771/d861905d10k.htm" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O74" r:id="rId28" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000119312515033771/d861905d10k.htm" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="P36" r:id="rId29" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809016000058/0001058090-16-000058-index.html" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="P74" r:id="rId30" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809016000058/0001058090-16-000058-index.html" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q36" r:id="rId31" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809017000009/0001058090-17-000009-index.html" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q74" r:id="rId32" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809017000009/0001058090-17-000009-index.html" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="R36" r:id="rId33" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809018000018/0001058090-18-000018-index.html" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="R74" r:id="rId34" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809018000018/0001058090-18-000018-index.html" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="S36" r:id="rId35" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809019000007/0001058090-19-000007-index.html" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="S74" r:id="rId36" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809019000007/0001058090-19-000007-index.html" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="T36" r:id="rId37" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809020000010/0001058090-20-000010-index.html" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="T74" r:id="rId38" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809020000010/0001058090-20-000010-index.html" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="U36" r:id="rId39" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809021000010/0001058090-21-000010-index.htm" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="U74" r:id="rId40" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809021000010/0001058090-21-000010-index.htm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="V36" r:id="rId41" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809022000011/0001058090-22-000011-index.htm" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="V74" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809022000011/0001058090-22-000011-index.htm" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="W36" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809023000010/0001058090-23-000010-index.htm" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="W74" r:id="rId44" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809023000010/0001058090-23-000010-index.htm" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="X1" r:id="rId45" display="https://finbox.com/NYSE:CMG/explorer/revenue_proj" xr:uid="{E18C0759-933E-EF40-BC09-EE69D891C2E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId47"/>
+  <drawing r:id="rId46"/>
 </worksheet>
 </file>
--- a/Consumer/Chipotle Mexican Grill.xlsx
+++ b/Consumer/Chipotle Mexican Grill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B762C8-FA19-6A40-96A5-62C96165B3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1399E4-7432-BD48-879B-97D2A0213F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2376,13 +2376,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2077.2899000000002</v>
-    <v>1196.28</v>
-    <v>1.3409</v>
-    <v>-0.18</v>
-    <v>-8.8549999999999998E-5</v>
-    <v>2.34</v>
-    <v>1.1509999999999999E-3</v>
+    <v>2139.88</v>
+    <v>1233.6099999999999</v>
+    <v>1.3165</v>
+    <v>-8.3000000000000007</v>
+    <v>-4.0479999999999995E-3</v>
     <v>USD</v>
     <v>Chipotle Mexican Grill, Inc., together with its subsidiaries, owns and operates Chipotle Mexican Grill restaurants. The Company’s Chipotle Mexican Grill restaurants serve a relevant menu of burritos, burrito bowls (a burrito without the tortilla), quesadillas, tacos, and salads. The Company has approximately 3,200 restaurants in the United States, Canada, the United Kingdom, France and Germany. The Company manages its operations based on eight regions. It sells gift cards, which do not have expiration dates. In its Chipotle restaurants, the Company serves only meats and brands these meats as Responsibly Raised. The Company’s subsidiaries include Chipotle Mexican Grill Canada Corp., Chipotle Mexican Grill France SAS, Chipotle Mexican Grill Germany GMBH, Chipotle Mexican Grill of Berwyn Heights, LLC, Chipotle Mexican Grill of Colorado, LLC, Chipotle Mexican Grill of Kansas, LLC, Chipotle Mexican Grill of Maryland, LLC, SP Kitchens, LLC and Chipotle Mexican Grill Texas Holdings, LLC.</v>
     <v>104958</v>
@@ -2390,25 +2388,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>610 Newport Center Dr, Suite 1100, NEWPORT BEACH, CA, 92660 US</v>
-    <v>2046.96</v>
+    <v>2059.09</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45055.981408055472</v>
+    <v>45100.783510925779</v>
     <v>0</v>
-    <v>2030.91</v>
-    <v>56080764174</v>
+    <v>2037.76</v>
+    <v>56344523044</v>
     <v>CHIPOTLE MEXICAN GRILL, INC.</v>
     <v>CHIPOTLE MEXICAN GRILL, INC.</v>
-    <v>2040.08</v>
-    <v>54.988199999999999</v>
-    <v>2032.84</v>
-    <v>2032.66</v>
-    <v>2035</v>
+    <v>2048</v>
+    <v>55.471299999999999</v>
+    <v>2050.52</v>
+    <v>2042.22</v>
     <v>27589840</v>
     <v>CMG</v>
     <v>CHIPOTLE MEXICAN GRILL, INC. (XNYS:CMG)</v>
-    <v>137342</v>
-    <v>352503</v>
+    <v>146543</v>
+    <v>265706</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2440,8 +2437,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2462,7 +2457,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2479,7 +2473,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2490,16 +2484,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2565,19 +2556,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2622,9 +2607,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2632,9 +2614,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2996,10 +2975,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA84" sqref="AA84"/>
+      <selection pane="bottomRight" activeCell="X98" sqref="X98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4402,15 +4381,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>6.4948493782957319</v>
+        <v>6.5253959330381814</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>62.37426515374802</v>
+        <v>62.667623597348907</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>66.445222151265085</v>
+        <v>66.757727106745733</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10208,7 +10187,7 @@
       </c>
       <c r="AE95" s="56" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.3409</v>
+        <v>1.3165</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10363,7 +10342,7 @@
       </c>
       <c r="AE97" s="35">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.8675745000000009E-2</v>
+        <v>9.7625325000000013E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10594,7 +10573,7 @@
       </c>
       <c r="AE100" s="33">
         <f>AE99/AE103</f>
-        <v>6.2385460009277208E-2</v>
+        <v>6.2111561334671092E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10672,7 +10651,7 @@
       </c>
       <c r="AE101" s="48" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>56080764174</v>
+        <v>56344523044</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10750,7 +10729,7 @@
       </c>
       <c r="AE102" s="33">
         <f>AE101/AE103</f>
-        <v>0.93761453999072275</v>
+        <v>0.93788843866532889</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10828,7 +10807,7 @@
       </c>
       <c r="AE103" s="37">
         <f>AE99+AE101</f>
-        <v>59812174174</v>
+        <v>60075933044</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11006,7 +10985,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>9.2788615047889808E-2</v>
+        <v>9.1829285275850228E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11140,7 +11119,7 @@
       <c r="AA107" s="38"/>
       <c r="AB107" s="41">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>24042219132.830616</v>
+        <v>24387343527.096115</v>
       </c>
       <c r="AC107" s="42" t="s">
         <v>147</v>
@@ -11171,7 +11150,7 @@
       </c>
       <c r="AB108" s="41">
         <f>AB107+AB106</f>
-        <v>25632256925.701313</v>
+        <v>25977381319.966812</v>
       </c>
       <c r="AC108" s="42" t="s">
         <v>143</v>
@@ -11181,7 +11160,7 @@
       </c>
       <c r="AE108" s="46">
         <f>AE105</f>
-        <v>9.2788615047889808E-2</v>
+        <v>9.1829285275850228E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11196,7 +11175,7 @@
       </c>
       <c r="Y110" s="48">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>20162990349.573036</v>
+        <v>20466133549.864021</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11223,7 +11202,7 @@
       </c>
       <c r="Y113" s="48">
         <f>Y110+Y111-Y112</f>
-        <v>17330716349.573036</v>
+        <v>17633859549.864021</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11241,7 +11220,7 @@
       </c>
       <c r="Y115" s="51">
         <f>Y113/Y114</f>
-        <v>628.42383113310939</v>
+        <v>639.41601446045956</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11250,7 +11229,7 @@
       </c>
       <c r="Y116" s="58" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>2032.66</v>
+        <v>2042.22</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11259,7 +11238,7 @@
       </c>
       <c r="Y117" s="53">
         <f>Y115/Y116-1</f>
-        <v>-0.69083672078305791</v>
+        <v>-0.68690150206125711</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Chipotle Mexican Grill.xlsx
+++ b/Consumer/Chipotle Mexican Grill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1399E4-7432-BD48-879B-97D2A0213F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28D03C6-CC8D-6840-B5F8-2E14BE4C0883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2378,9 +2378,9 @@
     <v>Powered by Refinitiv</v>
     <v>2139.88</v>
     <v>1233.6099999999999</v>
-    <v>1.3165</v>
-    <v>-8.3000000000000007</v>
-    <v>-4.0479999999999995E-3</v>
+    <v>1.3229</v>
+    <v>9.11</v>
+    <v>4.3350000000000003E-3</v>
     <v>USD</v>
     <v>Chipotle Mexican Grill, Inc., together with its subsidiaries, owns and operates Chipotle Mexican Grill restaurants. The Company’s Chipotle Mexican Grill restaurants serve a relevant menu of burritos, burrito bowls (a burrito without the tortilla), quesadillas, tacos, and salads. The Company has approximately 3,200 restaurants in the United States, Canada, the United Kingdom, France and Germany. The Company manages its operations based on eight regions. It sells gift cards, which do not have expiration dates. In its Chipotle restaurants, the Company serves only meats and brands these meats as Responsibly Raised. The Company’s subsidiaries include Chipotle Mexican Grill Canada Corp., Chipotle Mexican Grill France SAS, Chipotle Mexican Grill Germany GMBH, Chipotle Mexican Grill of Berwyn Heights, LLC, Chipotle Mexican Grill of Colorado, LLC, Chipotle Mexican Grill of Kansas, LLC, Chipotle Mexican Grill of Maryland, LLC, SP Kitchens, LLC and Chipotle Mexican Grill Texas Holdings, LLC.</v>
     <v>104958</v>
@@ -2388,24 +2388,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>610 Newport Center Dr, Suite 1100, NEWPORT BEACH, CA, 92660 US</v>
-    <v>2059.09</v>
+    <v>2124.9899999999998</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45100.783510925779</v>
+    <v>45106.996204050782</v>
     <v>0</v>
-    <v>2037.76</v>
-    <v>56344523044</v>
+    <v>2102.8850000000002</v>
+    <v>58231116304</v>
     <v>CHIPOTLE MEXICAN GRILL, INC.</v>
     <v>CHIPOTLE MEXICAN GRILL, INC.</v>
-    <v>2048</v>
-    <v>55.471299999999999</v>
-    <v>2050.52</v>
-    <v>2042.22</v>
+    <v>2103.27</v>
+    <v>57.096600000000002</v>
+    <v>2101.4899999999998</v>
+    <v>2110.6</v>
     <v>27589840</v>
     <v>CMG</v>
     <v>CHIPOTLE MEXICAN GRILL, INC. (XNYS:CMG)</v>
-    <v>146543</v>
-    <v>265706</v>
+    <v>2</v>
+    <v>276575</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2558,10 +2558,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -2978,7 +2978,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="S89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X98" sqref="X98"/>
+      <selection pane="bottomRight" activeCell="Z104" sqref="Z104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4381,15 +4381,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>6.5253959330381814</v>
+        <v>6.7438868762748054</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>62.667623597348907</v>
+        <v>64.765934309938487</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>66.757727106745733</v>
+        <v>68.992987451644822</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="AE95" s="56" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.3165</v>
+        <v>1.3229</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="AE97" s="35">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.7625325000000013E-2</v>
+        <v>9.7900845000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="AE100" s="33">
         <f>AE99/AE103</f>
-        <v>6.2111561334671092E-2</v>
+        <v>6.0220430356454309E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="AE101" s="48" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>56344523044</v>
+        <v>58231116304</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="AE102" s="33">
         <f>AE101/AE103</f>
-        <v>0.93788843866532889</v>
+        <v>0.9397795696435457</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="AE103" s="37">
         <f>AE99+AE101</f>
-        <v>60075933044</v>
+        <v>61962526304</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>9.1829285275850228E-2</v>
+        <v>9.226468725591136E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11119,7 +11119,7 @@
       <c r="AA107" s="38"/>
       <c r="AB107" s="41">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>24387343527.096115</v>
+        <v>24229485101.02879</v>
       </c>
       <c r="AC107" s="42" t="s">
         <v>147</v>
@@ -11150,7 +11150,7 @@
       </c>
       <c r="AB108" s="41">
         <f>AB107+AB106</f>
-        <v>25977381319.966812</v>
+        <v>25819522893.899487</v>
       </c>
       <c r="AC108" s="42" t="s">
         <v>143</v>
@@ -11160,7 +11160,7 @@
       </c>
       <c r="AE108" s="46">
         <f>AE105</f>
-        <v>9.1829285275850228E-2</v>
+        <v>9.226468725591136E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="Y110" s="48">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>20466133549.864021</v>
+        <v>20327471157.908424</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11202,7 +11202,7 @@
       </c>
       <c r="Y113" s="48">
         <f>Y110+Y111-Y112</f>
-        <v>17633859549.864021</v>
+        <v>17495197157.908424</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="Y115" s="51">
         <f>Y113/Y114</f>
-        <v>639.41601446045956</v>
+        <v>634.38801966617837</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11229,7 +11229,7 @@
       </c>
       <c r="Y116" s="58" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>2042.22</v>
+        <v>2110.6</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11238,7 +11238,7 @@
       </c>
       <c r="Y117" s="53">
         <f>Y115/Y116-1</f>
-        <v>-0.68690150206125711</v>
+        <v>-0.69942764158714188</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Chipotle Mexican Grill.xlsx
+++ b/Consumer/Chipotle Mexican Grill.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28D03C6-CC8D-6840-B5F8-2E14BE4C0883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427D5747-1042-C24A-BC43-0F1702F8712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +544,52 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -723,7 +752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -829,22 +858,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -852,47 +872,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -934,98 +919,103 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,1216 +1034,58 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400"/>
-              <a:t>CMG</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.0184670281123541E-2"/>
-          <c:y val="0.14371731594775142"/>
-          <c:w val="0.87101071053148438"/>
-          <c:h val="0.67881843851151258"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet 1'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$W$3</c:f>
-              <c:numCache>
-                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>131598000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>204645000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>315520000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>470721000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>627695000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>822930000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1085782000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1331968000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1518417000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1835922000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2269548000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2731224000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3214591000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4108269000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4501223000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3904384000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4476412000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4864985000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5586369000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5984634000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7547061000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8634652000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ADF5-2A4C-96B7-070C714AD4D1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$W$19</c:f>
-              <c:numCache>
-                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>-15270000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6029000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7376000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27928000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58266000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>102508000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>157597000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>180278000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>265938000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>358251000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>427588000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>541815000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>630525000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>824777000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>900235000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>185107000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>439091000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>470415000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>835015000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>716853000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1067420000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1468357000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ADF5-2A4C-96B7-070C714AD4D1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$W$106</c:f>
-              <c:numCache>
-                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-55943000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5605000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6285000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6378000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46406000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>143475000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>175976000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>259949000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>222926000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>328854000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>429477000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>425898000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>90400000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>250328000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>334162000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>387720000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>290495000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>839606000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>844015000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ADF5-2A4C-96B7-070C714AD4D1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="502671344"/>
-        <c:axId val="502667696"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="502671344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="502667696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="502667696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,###,,;\(#,###,,\);\ \-\ \-" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="502671344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.36335729665408445"/>
-          <c:y val="0.90233672321572045"/>
-          <c:w val="0.30230426559018847"/>
-          <c:h val="5.9762402148711001E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45357A7D-866D-9372-2C90-5B8E54A648C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Top 12"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0119999999999996E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2376,11 +1208,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2139.88</v>
-    <v>1233.6099999999999</v>
-    <v>1.3229</v>
-    <v>9.11</v>
-    <v>4.3350000000000003E-3</v>
+    <v>2175.0100000000002</v>
+    <v>1344.05</v>
+    <v>1.3091999999999999</v>
+    <v>-4.8600000000000003</v>
+    <v>-2.6259999999999999E-3</v>
+    <v>3.29</v>
+    <v>1.7829999999999999E-3</v>
     <v>USD</v>
     <v>Chipotle Mexican Grill, Inc., together with its subsidiaries, owns and operates Chipotle Mexican Grill restaurants. The Company’s Chipotle Mexican Grill restaurants serve a relevant menu of burritos, burrito bowls (a burrito without the tortilla), quesadillas, tacos, and salads. The Company has approximately 3,200 restaurants in the United States, Canada, the United Kingdom, France and Germany. The Company manages its operations based on eight regions. It sells gift cards, which do not have expiration dates. In its Chipotle restaurants, the Company serves only meats and brands these meats as Responsibly Raised. The Company’s subsidiaries include Chipotle Mexican Grill Canada Corp., Chipotle Mexican Grill France SAS, Chipotle Mexican Grill Germany GMBH, Chipotle Mexican Grill of Berwyn Heights, LLC, Chipotle Mexican Grill of Colorado, LLC, Chipotle Mexican Grill of Kansas, LLC, Chipotle Mexican Grill of Maryland, LLC, SP Kitchens, LLC and Chipotle Mexican Grill Texas Holdings, LLC.</v>
     <v>104958</v>
@@ -2388,24 +1222,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>610 Newport Center Dr, Suite 1100, NEWPORT BEACH, CA, 92660 US</v>
-    <v>2124.9899999999998</v>
+    <v>1866.66</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45106.996204050782</v>
+    <v>45148.993159062498</v>
     <v>0</v>
-    <v>2102.8850000000002</v>
-    <v>58231116304</v>
+    <v>1841.174</v>
+    <v>50918727653</v>
     <v>CHIPOTLE MEXICAN GRILL, INC.</v>
     <v>CHIPOTLE MEXICAN GRILL, INC.</v>
-    <v>2103.27</v>
-    <v>57.096600000000002</v>
-    <v>2101.4899999999998</v>
-    <v>2110.6</v>
-    <v>27589840</v>
+    <v>1856.82</v>
+    <v>46.107900000000001</v>
+    <v>1850.57</v>
+    <v>1845.71</v>
+    <v>1849</v>
+    <v>27587610</v>
     <v>CMG</v>
     <v>CHIPOTLE MEXICAN GRILL, INC. (XNYS:CMG)</v>
-    <v>2</v>
-    <v>276575</v>
+    <v>191704</v>
+    <v>334993</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2437,6 +1272,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2457,6 +1294,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2473,7 +1311,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2484,13 +1322,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2556,13 +1397,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2607,6 +1454,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2614,6 +1464,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2975,10 +1828,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z104" sqref="Z104"/>
+      <selection pane="bottomRight" activeCell="T116" sqref="T116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3058,19 +1911,19 @@
       <c r="W1" s="8">
         <v>2022</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="23">
         <v>2023</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="23">
         <v>2024</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="23">
         <v>2025</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="23">
         <v>2026</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3079,79 +1932,79 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
@@ -3230,142 +2083,142 @@
       <c r="W3" s="1">
         <v>8634652000</v>
       </c>
-      <c r="X3" s="28">
-        <v>9805000000</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>11083000000</v>
-      </c>
-      <c r="Z3" s="28">
-        <v>12633000000</v>
-      </c>
-      <c r="AA3" s="28">
-        <v>14663000000</v>
-      </c>
-      <c r="AB3" s="28">
-        <v>16258000000</v>
+      <c r="X3" s="24">
+        <v>9815000000</v>
+      </c>
+      <c r="Y3" s="24">
+        <v>11091000000</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>12545000000</v>
+      </c>
+      <c r="AA3" s="24">
+        <v>14517000000</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>16027000000</v>
       </c>
       <c r="AC3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AF3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="69">
         <f>(C3/B3)-1</f>
         <v>0.55507682487575805</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="69">
         <f>(D3/C3)-1</f>
         <v>0.54179188350558283</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="69">
         <f>(E3/D3)-1</f>
         <v>0.49188957910750508</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="69">
         <f t="shared" ref="F4:T4" si="0">(F3/E3)-1</f>
         <v>0.3334756681771156</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="69">
         <f t="shared" si="0"/>
         <v>0.31103481786536458</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="69">
         <f t="shared" si="0"/>
         <v>0.31940991335836588</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="69">
         <f t="shared" si="0"/>
         <v>0.22673612198397097</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="69">
         <f t="shared" si="0"/>
         <v>0.13998008961176245</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="69">
         <f t="shared" si="0"/>
         <v>0.20910263781293281</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="69">
         <f t="shared" si="0"/>
         <v>0.23618977276812414</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="69">
         <f t="shared" si="0"/>
         <v>0.2034220029715168</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="69">
         <f t="shared" si="0"/>
         <v>0.17697816070743366</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="69">
         <f t="shared" si="0"/>
         <v>0.27800675109212958</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="69">
         <f t="shared" si="0"/>
         <v>9.5649530252279069E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="69">
         <f t="shared" si="0"/>
         <v>-0.13259485255451686</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="69">
         <f t="shared" si="0"/>
         <v>0.14650915483722904</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="69">
         <f t="shared" si="0"/>
         <v>8.6804565799573519E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="69">
         <f t="shared" si="0"/>
         <v>0.14828082717623992</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="69">
         <f t="shared" ref="U4" si="1">(U3/T3)-1</f>
         <v>7.1292283055415684E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="69">
         <f t="shared" ref="V4" si="2">(V3/U3)-1</f>
         <v>0.26107310823017738</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="69">
         <f t="shared" ref="W4:AB4" si="3">(W3/V3)-1</f>
         <v>0.14410788517543449</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="3"/>
-        <v>0.13554084171545067</v>
+        <v>0.13669896598033127</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="3"/>
-        <v>0.13034166241713407</v>
+        <v>0.13000509424350493</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="3"/>
-        <v>0.13985383019038156</v>
+        <v>0.13109728608781901</v>
       </c>
       <c r="AA4" s="16">
         <f t="shared" si="3"/>
-        <v>0.16069025567956929</v>
+        <v>0.157194101235552</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="3"/>
-        <v>0.10877719429857469</v>
+        <v>0.10401598126334632</v>
       </c>
       <c r="AC4" s="17">
         <f>(W4+V4+U4)/3</f>
@@ -3380,7 +2233,7 @@
         <v>0.40945266913974221</v>
       </c>
       <c r="AF4" s="17">
-        <f>(W105+V105+U105)/3</f>
+        <f>(W106+V106+U106)/3</f>
         <v>0.54825004778415287</v>
       </c>
     </row>
@@ -3389,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1">
         <v>218422000</v>
@@ -3460,13 +2313,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="10">
         <v>252299000</v>
@@ -3526,16 +2379,16 @@
         <v>3374024000</v>
       </c>
       <c r="AC6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AD6" s="19" t="s">
+      <c r="AF6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AE6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3543,13 +2396,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2">
         <v>0.53600000000000003</v>
@@ -3621,7 +2474,7 @@
         <v>0.1041</v>
       </c>
       <c r="AF7" s="20">
-        <f>W106/W3</f>
+        <f>W107/W3</f>
         <v>9.7747425142321889E-2</v>
       </c>
     </row>
@@ -3698,7 +2551,7 @@
     </row>
     <row r="9" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3789,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="AC9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AE9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AF9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -3893,70 +2746,70 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -4030,21 +2883,21 @@
         <v>564191000</v>
       </c>
       <c r="AC12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AD12" s="19" t="s">
+      <c r="AF12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AE12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4293,16 +3146,16 @@
         <v>2213621000</v>
       </c>
       <c r="AC15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AD15" s="19" t="s">
+      <c r="AF15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AE15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -4375,24 +3228,24 @@
       <c r="W16" s="1">
         <v>7474249000</v>
       </c>
-      <c r="AC16" s="29">
+      <c r="AC16" s="25">
         <f>(W35+V35+U35+T35+S35)/5</f>
         <v>-3.4490063976499946E-3</v>
       </c>
-      <c r="AD16" s="30">
+      <c r="AD16" s="31">
         <f>AE101/W3</f>
-        <v>6.7438868762748054</v>
-      </c>
-      <c r="AE16" s="30">
+        <v>5.8970214031787265</v>
+      </c>
+      <c r="AE16" s="31">
         <f>AE101/W28</f>
-        <v>64.765934309938487</v>
-      </c>
-      <c r="AF16" s="31">
-        <f>AE101/W106</f>
-        <v>68.992987451644822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+        <v>56.632934067474068</v>
+      </c>
+      <c r="AF16" s="33">
+        <f>AE101/W107</f>
+        <v>60.329173833403438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4463,7 +3316,7 @@
         <v>21128000</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4534,10 +3387,19 @@
         <v>286826000</v>
       </c>
       <c r="AC18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD18" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE18" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF18" s="19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4607,14 +3469,41 @@
       <c r="W19" s="10">
         <v>1468357000</v>
       </c>
-      <c r="AC19" s="55">
+      <c r="X19" s="35">
+        <v>1865000000</v>
+      </c>
+      <c r="Y19" s="35">
+        <v>2224000000</v>
+      </c>
+      <c r="Z19" s="35">
+        <v>2647000003</v>
+      </c>
+      <c r="AA19" s="35">
+        <v>3118000000</v>
+      </c>
+      <c r="AB19" s="35">
+        <v>3572000000</v>
+      </c>
+      <c r="AC19" s="28">
         <f>W40-W56-W61</f>
         <v>-2832274000</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD19" s="31">
+        <f>AE101/X3</f>
+        <v>5.1878479524197658</v>
+      </c>
+      <c r="AE19" s="32">
+        <f>AE101/X28</f>
+        <v>42.432273044166664</v>
+      </c>
+      <c r="AF19" s="33">
+        <f>AE101/X106</f>
+        <v>49.822629797455967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4698,11 +3587,33 @@
         <v>0.4890361064262827</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" ref="W20" si="14">(W19/V19)-1</f>
+        <f t="shared" ref="W20:AB20" si="14">(W19/V19)-1</f>
         <v>0.37561316070525197</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X20" s="16">
+        <f t="shared" si="14"/>
+        <v>0.27012708762242421</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" si="14"/>
+        <v>0.19249329758713141</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="14"/>
+        <v>0.19019784307553955</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="14"/>
+        <v>0.17793728616025239</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="14"/>
+        <v>0.14560615779345731</v>
+      </c>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+    </row>
+    <row r="21" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4772,8 +3683,34 @@
       <c r="W21" s="2">
         <v>0.1701</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X21" s="36">
+        <f t="shared" ref="X21:AB21" si="15">X19/X3</f>
+        <v>0.19001528273051452</v>
+      </c>
+      <c r="Y21" s="36">
+        <f t="shared" si="15"/>
+        <v>0.20052294653322514</v>
+      </c>
+      <c r="Z21" s="36">
+        <f t="shared" si="15"/>
+        <v>0.21100039880430452</v>
+      </c>
+      <c r="AA21" s="36">
+        <f t="shared" si="15"/>
+        <v>0.21478266859543982</v>
+      </c>
+      <c r="AB21" s="36">
+        <f t="shared" si="15"/>
+        <v>0.22287390029325513</v>
+      </c>
+      <c r="AE21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF21" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4843,8 +3780,16 @@
       <c r="W22" s="10">
         <v>1160403000</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="AE22" s="70">
+        <f>W98/AE101</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="34">
+        <f>W107/AE101</f>
+        <v>1.6575728399023985E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4915,7 +3860,7 @@
         <v>0.13439999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4986,7 +3931,7 @@
         <v>21128000</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5057,7 +4002,7 @@
         <v>1181531000</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5128,21 +4073,21 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1">
         <v>-7456000</v>
@@ -5199,7 +4144,7 @@
         <v>282430000</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5269,10 +4214,25 @@
       <c r="W28" s="11">
         <v>899101000</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="37">
+        <v>1200000000</v>
+      </c>
+      <c r="Y28" s="37">
+        <v>1442000000</v>
+      </c>
+      <c r="Z28" s="37">
+        <v>1720000000</v>
+      </c>
+      <c r="AA28" s="37">
+        <v>2087000000</v>
+      </c>
+      <c r="AB28" s="37">
+        <v>2440000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5288,79 +4248,99 @@
         <v>-1.794140523723101</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:O29" si="15">(F28/E28)-1</f>
+        <f t="shared" ref="F29:O29" si="16">(F28/E28)-1</f>
         <v>5.1534443356186745</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.8869906621392278E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.70347391545759597</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.10825786885478217</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.62201733970998174</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.41102132523946544</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.20093752968192158</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.29335411384307619</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.17783453237410063</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.36017811005442257</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" ref="P29" si="16">(P28/O28)-1</f>
+        <f t="shared" ref="P29" si="17">(P28/O28)-1</f>
         <v>6.7871047703727649E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" ref="Q29" si="17">(Q28/P28)-1</f>
+        <f t="shared" ref="Q29" si="18">(Q28/P28)-1</f>
         <v>-0.95177059810513831</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" ref="R29" si="18">(R28/Q28)-1</f>
+        <f t="shared" ref="R29" si="19">(R28/Q28)-1</f>
         <v>6.6838869997384256</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" ref="S29" si="19">(S28/R28)-1</f>
+        <f t="shared" ref="S29" si="20">(S28/R28)-1</f>
         <v>1.7020986876818966E-3</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" ref="T29" si="20">(T28/S28)-1</f>
+        <f t="shared" ref="T29" si="21">(T28/S28)-1</f>
         <v>0.98330246441578439</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" ref="U29" si="21">(U28/T28)-1</f>
+        <f t="shared" ref="U29" si="22">(U28/T28)-1</f>
         <v>1.6015627231135587E-2</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" ref="V29" si="22">(V28/U28)-1</f>
+        <f t="shared" ref="V29" si="23">(V28/U28)-1</f>
         <v>0.83543115418561631</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" ref="W29" si="23">(W28/V28)-1</f>
+        <f t="shared" ref="W29:AB29" si="24">(W28/V28)-1</f>
         <v>0.37691122600247473</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X29" s="16">
+        <f t="shared" si="24"/>
+        <v>0.33466651688742433</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" si="24"/>
+        <v>0.20166666666666666</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" si="24"/>
+        <v>0.19278779472954222</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" si="24"/>
+        <v>0.21337209302325588</v>
+      </c>
+      <c r="AB29" s="16">
+        <f t="shared" si="24"/>
+        <v>0.16914230953521803</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5430,8 +4410,28 @@
       <c r="W30" s="2">
         <v>0.1041</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X30" s="38">
+        <f t="shared" ref="X30:AB30" si="25">X28/X3</f>
+        <v>0.12226184411614875</v>
+      </c>
+      <c r="Y30" s="38">
+        <f t="shared" si="25"/>
+        <v>0.13001532774321523</v>
+      </c>
+      <c r="Z30" s="38">
+        <f t="shared" si="25"/>
+        <v>0.137106416899163</v>
+      </c>
+      <c r="AA30" s="38">
+        <f t="shared" si="25"/>
+        <v>0.14376248536198938</v>
+      </c>
+      <c r="AB30" s="38">
+        <f t="shared" si="25"/>
+        <v>0.15224308978598614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5501,8 +4501,23 @@
       <c r="W31" s="12">
         <v>32.28</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="X31" s="39">
+        <v>43.49</v>
+      </c>
+      <c r="Y31" s="39">
+        <v>52.26</v>
+      </c>
+      <c r="Z31" s="39">
+        <v>62.36</v>
+      </c>
+      <c r="AA31" s="39">
+        <v>75.67</v>
+      </c>
+      <c r="AB31" s="39">
+        <v>88.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5717,7 +4732,7 @@
     </row>
     <row r="35" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -5725,83 +4740,83 @@
         <v>0.24080184274419472</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:O35" si="24">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:O35" si="26">(D34-C34)/C34</f>
         <v>0.12307460739551453</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.505836803073624</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-0.52979686400858494</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.23094714491544704</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.0976436162020638E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-3.1497013214264166E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-1.1432309513425954E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.2604380022057666E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.5177025963808025E-4</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-1.5794607179938962E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7.3846744029922315E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" ref="P35" si="25">(P34-O34)/O34</f>
+        <f t="shared" ref="P35" si="27">(P34-O34)/O34</f>
         <v>-5.7121096725057125E-4</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" ref="Q35" si="26">(Q34-P34)/P34</f>
+        <f t="shared" ref="Q35" si="28">(Q34-P34)/P34</f>
         <v>-5.47405855083508E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" ref="R35" si="27">(R34-Q34)/Q34</f>
+        <f t="shared" ref="R35" si="29">(R34-Q34)/Q34</f>
         <v>-4.0611353711790393E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" ref="S35" si="28">(S34-R34)/R34</f>
+        <f t="shared" ref="S35" si="30">(S34-R34)/R34</f>
         <v>-2.0972655019081965E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" ref="T35" si="29">(T34-S34)/S34</f>
+        <f t="shared" ref="T35" si="31">(T34-S34)/S34</f>
         <v>1.1909019383448967E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" ref="U35" si="30">(U34-T34)/T34</f>
+        <f t="shared" ref="U35" si="32">(U34-T34)/T34</f>
         <v>4.2763739176532953E-3</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" ref="V35" si="31">(V34-U34)/U34</f>
+        <f t="shared" ref="V35" si="33">(V34-U34)/U34</f>
         <v>0</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" ref="W35" si="32">(W34-V34)/V34</f>
+        <f t="shared" ref="W35" si="34">(W34-V34)/V34</f>
         <v>-1.245777027027027E-2</v>
       </c>
     </row>
@@ -5810,70 +4825,70 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="21" x14ac:dyDescent="0.25">
@@ -5881,70 +4896,70 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -5952,16 +4967,16 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1">
         <v>61000</v>
@@ -6023,22 +5038,22 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1">
         <v>20000000</v>
@@ -6094,16 +5109,16 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1">
         <v>61000</v>
@@ -6165,13 +5180,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1">
         <v>3222000</v>
@@ -6236,13 +5251,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1">
         <v>2256000</v>
@@ -6449,13 +5464,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1">
         <v>289873000</v>
@@ -6520,25 +5535,25 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1">
         <v>17738000</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1">
         <v>21939000</v>
@@ -6591,13 +5606,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1">
         <v>26243000</v>
@@ -6606,55 +5621,55 @@
         <v>17738000</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1">
         <v>21939000</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -6662,13 +5677,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1">
         <v>26243000</v>
@@ -6733,34 +5748,34 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1">
         <v>128241000</v>
@@ -6781,13 +5796,13 @@
         <v>125055000</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1">
         <v>102328000</v>
@@ -6804,70 +5819,70 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1">
         <v>13586000</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7017,70 +6032,70 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7159,13 +6174,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>11803000</v>
@@ -7230,13 +6245,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>4431000</v>
@@ -7248,7 +6263,7 @@
         <v>71000</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1">
         <v>82000</v>
@@ -7266,22 +6281,22 @@
         <v>143000</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1">
         <v>173139000</v>
@@ -7301,34 +6316,34 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1">
         <v>4207000</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1">
         <v>16362000</v>
@@ -7364,7 +6379,7 @@
         <v>32004000</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7372,37 +6387,37 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1">
         <v>22736000</v>
@@ -7585,61 +6600,61 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U61" s="1">
         <v>2952296000</v>
@@ -7656,25 +6671,25 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1">
         <v>87009000</v>
@@ -7689,37 +6704,37 @@
         <v>143284000</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7727,19 +6742,19 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1">
         <v>18681000</v>
@@ -7940,70 +6955,70 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8082,13 +7097,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1">
         <v>584000</v>
@@ -8153,13 +7168,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1">
         <v>-76147000</v>
@@ -8224,13 +7239,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1">
         <v>-45976000</v>
@@ -8358,7 +7373,7 @@
         <v>-1626790000</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8508,70 +7523,70 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="21" x14ac:dyDescent="0.25">
@@ -8579,70 +7594,70 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8650,13 +7665,13 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1">
         <v>6126000</v>
@@ -8721,13 +7736,13 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1">
         <v>21802000</v>
@@ -8792,13 +7807,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1">
         <v>11485000</v>
@@ -8863,25 +7878,25 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1">
         <v>11374000</v>
@@ -8931,94 +7946,94 @@
     </row>
     <row r="80" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:W80" si="33">B79/B3</f>
+        <f t="shared" ref="B80:W80" si="35">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>8.5392441860465112E-3</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.8734405634288876E-3</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.1645919597891413E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.823358659962248E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.3533770939329766E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.9802519200731911E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.3474606945163522E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.2865614522986308E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.6434346621643774E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.4577523248530296E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.4216693371099808E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.6360537587116069E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.3806358083050693E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.3372276969803211E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.1353092168624747E-2</v>
       </c>
     </row>
@@ -9027,13 +8042,13 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1">
         <v>9069000</v>
@@ -9098,25 +8113,25 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1">
         <v>1290000</v>
@@ -9169,13 +8184,13 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1">
         <v>-790000</v>
@@ -9234,41 +8249,41 @@
       <c r="W83" s="1">
         <v>-3011000</v>
       </c>
-      <c r="AD83" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE83" s="62"/>
+      <c r="AD83" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE83" s="50"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1">
         <v>6989000</v>
@@ -9309,23 +8324,23 @@
       <c r="W84" s="1">
         <v>18208000</v>
       </c>
-      <c r="AD84" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE84" s="64"/>
+      <c r="AD84" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE84" s="51"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1">
         <v>-28331000</v>
@@ -9382,12 +8397,12 @@
         <v>227766000</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD85" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AD85" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE85" s="53">
         <f>W17</f>
         <v>21128000</v>
       </c>
@@ -9397,13 +8412,13 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1">
         <v>-8810000</v>
@@ -9460,12 +8475,12 @@
         <v>12980000</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD86" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE86" s="24">
+        <v>91</v>
+      </c>
+      <c r="AD86" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE86" s="53">
         <f>W56</f>
         <v>236248000</v>
       </c>
@@ -9475,13 +8490,13 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10">
         <v>39672000</v>
@@ -9540,10 +8555,10 @@
       <c r="W87" s="10">
         <v>1323179000</v>
       </c>
-      <c r="AD87" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE87" s="24">
+      <c r="AD87" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE87" s="53">
         <f>W61</f>
         <v>3495162000</v>
       </c>
@@ -9553,13 +8568,13 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1">
         <v>-95615000</v>
@@ -9618,110 +8633,110 @@
       <c r="W88" s="1">
         <v>-479164000</v>
       </c>
-      <c r="AD88" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE88" s="33">
+      <c r="AD88" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE88" s="55">
         <f>AE85/(AE86+AE87)</f>
         <v>5.6622027598146546E-3</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:W89" si="36">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="36"/>
+        <v>0.20312456848111726</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="36"/>
+        <v>0.13228717768980158</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="36"/>
+        <v>0.11825064100227237</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="36"/>
+        <v>0.12944126905769299</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="36"/>
+        <v>0.11419268330770709</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="36"/>
+        <v>7.7184330786602098E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="36"/>
+        <v>6.1666563176431245E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="36"/>
+        <v>6.6597842389762185E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="36"/>
+        <v>7.2142380119682603E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="36"/>
+        <v>6.2193293019236352E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="36"/>
+        <v>6.1483315722509896E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="36"/>
+        <v>5.7188457448120213E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="36"/>
+        <v>6.6295220961872597E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="36"/>
+        <v>4.8426507658365675E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="36"/>
+        <v>5.9073152332432682E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="36"/>
+        <v>5.9772635857029854E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="36"/>
+        <v>6.2385101578475807E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="36"/>
+        <v>5.8628782780475737E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="36"/>
+        <v>5.549314552572588E-2</v>
+      </c>
+      <c r="AD89" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:W89" si="34">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="34"/>
-        <v>0.20312456848111726</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="34"/>
-        <v>0.13228717768980158</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="34"/>
-        <v>0.11825064100227237</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="34"/>
-        <v>0.12944126905769299</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="34"/>
-        <v>0.11419268330770709</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="34"/>
-        <v>7.7184330786602098E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="34"/>
-        <v>6.1666563176431245E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="34"/>
-        <v>6.6597842389762185E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="34"/>
-        <v>7.2142380119682603E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="34"/>
-        <v>6.2193293019236352E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="34"/>
-        <v>6.1483315722509896E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="34"/>
-        <v>5.7188457448120213E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="34"/>
-        <v>6.6295220961872597E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="34"/>
-        <v>4.8426507658365675E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="34"/>
-        <v>5.9073152332432682E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="34"/>
-        <v>5.9772635857029854E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="34"/>
-        <v>6.2385101578475807E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="34"/>
-        <v>5.8628782780475737E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="34"/>
-        <v>5.549314552572588E-2</v>
-      </c>
-      <c r="AD89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE89" s="24">
+      <c r="AE89" s="53">
         <f>W27</f>
         <v>282430000</v>
       </c>
@@ -9731,31 +8746,31 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1">
         <v>-5668000</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1">
         <v>-1900000</v>
@@ -9764,42 +8779,42 @@
         <v>-586000</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1">
         <v>-10025000</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD90" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="AE90" s="24">
+      <c r="AE90" s="53">
         <f>W25</f>
         <v>1181531000</v>
       </c>
@@ -9809,22 +8824,22 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1">
         <v>-20000000</v>
@@ -9854,7 +8869,7 @@
         <v>-559372000</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1">
         <v>-199801000</v>
@@ -9874,10 +8889,10 @@
       <c r="W91" s="1">
         <v>-614416000</v>
       </c>
-      <c r="AD91" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE91" s="33">
+      <c r="AD91" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE91" s="55">
         <f>AE89/AE90</f>
         <v>0.23903731683722221</v>
       </c>
@@ -9887,25 +8902,25 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1">
         <v>20000000</v>
@@ -9952,10 +8967,10 @@
       <c r="W92" s="1">
         <v>263548000</v>
       </c>
-      <c r="AD92" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE92" s="35">
+      <c r="AD92" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE92" s="55">
         <f>AE88*(1-AE91)</f>
         <v>4.3087250047202453E-3</v>
       </c>
@@ -9965,88 +8980,88 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T93" s="1">
         <v>13969000</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V93" s="1">
         <v>4035000</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD93" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE93" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AD93" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE93" s="51"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10">
         <v>-95615000</v>
@@ -10105,11 +9120,12 @@
       <c r="W94" s="10">
         <v>-830032000</v>
       </c>
-      <c r="AD94" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE94" s="36">
-        <v>4.095E-2</v>
+      <c r="AD94" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE94" s="66">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0119999999999996E-2</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10117,25 +9133,25 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1">
         <v>-76000</v>
@@ -10153,41 +9169,41 @@
         <v>-133000</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD95" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE95" s="56" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AD95" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE95" s="57" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>1.3229</v>
+        <v>1.3091999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10195,19 +9211,19 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>64923000</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1">
         <v>136085000</v>
@@ -10216,54 +9232,54 @@
         <v>3863000</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD96" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE96" s="36">
+        <v>91</v>
+      </c>
+      <c r="AD96" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE96" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10272,25 +9288,25 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1">
         <v>-30227000</v>
@@ -10337,12 +9353,12 @@
       <c r="W97" s="1">
         <v>-830140000</v>
       </c>
-      <c r="AD97" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE97" s="35">
+      <c r="AD97" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE97" s="55">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>9.7900845000000014E-2</v>
+        <v>9.7567696000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10350,88 +9366,88 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD98" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE98" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="W98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE98" s="51"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1">
         <v>-8980000</v>
@@ -10490,10 +9506,10 @@
       <c r="W99" s="1">
         <v>-99264000</v>
       </c>
-      <c r="AD99" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE99" s="24">
+      <c r="AD99" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE99" s="53">
         <f>AE86+AE87</f>
         <v>3731410000</v>
       </c>
@@ -10503,13 +9519,13 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10">
         <v>55943000</v>
@@ -10568,12 +9584,12 @@
       <c r="W100" s="10">
         <v>-929404000</v>
       </c>
-      <c r="AD100" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE100" s="33">
+      <c r="AD100" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE100" s="55">
         <f>AE99/AE103</f>
-        <v>6.0220430356454309E-2</v>
+        <v>6.82781445802116E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10581,31 +9597,31 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1">
         <v>484000</v>
@@ -10646,12 +9662,12 @@
       <c r="W101" s="1">
         <v>-1007000</v>
       </c>
-      <c r="AD101" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE101" s="48" cm="1">
+      <c r="AD101" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE101" s="43" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>58231116304</v>
+        <v>50918727653</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10659,13 +9675,13 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10">
         <v>55943000</v>
@@ -10724,12 +9740,12 @@
       <c r="W102" s="10">
         <v>-437264000</v>
       </c>
-      <c r="AD102" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE102" s="33">
+      <c r="AD102" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE102" s="55">
         <f>AE101/AE103</f>
-        <v>0.9397795696435457</v>
+        <v>0.93172185541978836</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10737,19 +9753,19 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G103" s="1">
         <v>61000</v>
@@ -10802,29 +9818,32 @@
       <c r="W103" s="1">
         <v>846230000</v>
       </c>
-      <c r="AD103" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE103" s="37">
+      <c r="AC103" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD103" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE103" s="58">
         <f>AE99+AE101</f>
-        <v>61962526304</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+        <v>54650137653</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11">
         <v>61000</v>
@@ -10880,372 +9899,472 @@
       <c r="W104" s="11">
         <v>408966000</v>
       </c>
-      <c r="AD104" s="63" t="s">
+      <c r="X104" s="67">
+        <f>(X106/W107)-1</f>
+        <v>0.21087895357309994</v>
+      </c>
+      <c r="Y104" s="67">
+        <f>(Y106/X106)-1</f>
+        <v>0.22211350293542065</v>
+      </c>
+      <c r="Z104" s="67">
+        <f>(Z106/Y106)-1</f>
+        <v>0.1465172137710169</v>
+      </c>
+      <c r="AA104" s="67">
+        <f>(AA106/Z106)-1</f>
+        <v>0.18086592178770955</v>
+      </c>
+      <c r="AB104" s="67">
+        <f>(AB106/AA106)-1</f>
+        <v>0.26493199290360736</v>
+      </c>
+      <c r="AC104" s="67">
+        <f>SUM(X104:AB104)/5</f>
+        <v>0.20506151699417088</v>
+      </c>
+      <c r="AD104" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE104" s="51"/>
+    </row>
+    <row r="105" spans="1:31" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" ref="C105:V105" si="37">(C22*(1-$AE$91))+C77+C88+C81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="37"/>
+        <v>-60097561.856608078</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="37"/>
+        <v>-16444722.598052859</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="37"/>
+        <v>5851160.1473004222</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="37"/>
+        <v>7178225.9525987953</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="37"/>
+        <v>28412050.256827801</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="37"/>
+        <v>142293903.37367365</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="37"/>
+        <v>192544650.0574255</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="37"/>
+        <v>288691600.13490975</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="37"/>
+        <v>312218253.5599997</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="37"/>
+        <v>372138040.57447499</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="37"/>
+        <v>463804275.19210243</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="37"/>
+        <v>522470734.27358234</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="37"/>
+        <v>22116197.06888774</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="37"/>
+        <v>219569128.82438123</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="37"/>
+        <v>215274406.52340055</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="37"/>
+        <v>249196470.89158058</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="37"/>
+        <v>-68124024.002755761</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="37"/>
+        <v>622138585.07309592</v>
+      </c>
+      <c r="W105" s="1">
+        <f>(W22*(1-$AE$91))+W77+W88+W81</f>
+        <v>773102380.43013692</v>
+      </c>
+      <c r="X105" s="29">
+        <f>W105*(1+$AE$106)</f>
+        <v>874999041.29895782</v>
+      </c>
+      <c r="Y105" s="29">
+        <f t="shared" ref="Y105:AB105" si="38">X105*(1+$AE$106)</f>
+        <v>990325914.98181593</v>
+      </c>
+      <c r="Z105" s="29">
+        <f t="shared" si="38"/>
+        <v>1120853134.225873</v>
+      </c>
+      <c r="AA105" s="29">
+        <f t="shared" si="38"/>
+        <v>1268584139.3204689</v>
+      </c>
+      <c r="AB105" s="29">
+        <f t="shared" si="38"/>
+        <v>1435786428.5644665</v>
+      </c>
+      <c r="AC105" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD105" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE105" s="60">
+        <f>(AE100*AE92)+(AE102*AE97)</f>
+        <v>9.1200146494982537E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f>(D107/C107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f>(E107/D107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>-0.89980873388985216</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>-2.1213202497769847</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>1.479713603818622E-2</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>6.275948573220445</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>2.0917338275223032</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>0.2265272695591567</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>0.47718438878028824</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>-0.14242409087936481</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>0.47517113302172032</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>0.30598076958163811</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>-8.3333915436681893E-3</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>-0.78774260503688676</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>1.7691150442477874</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>0.33489661564027995</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>0.16027555497034363</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>-0.25076085835138762</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>1.8902597290831169</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>5.2512726207292193E-3</v>
+      </c>
+      <c r="X106" s="68">
+        <v>1022000000</v>
+      </c>
+      <c r="Y106" s="68">
+        <v>1249000000</v>
+      </c>
+      <c r="Z106" s="68">
+        <v>1432000000</v>
+      </c>
+      <c r="AA106" s="68">
+        <v>1691000000</v>
+      </c>
+      <c r="AB106" s="68">
+        <v>2139000000</v>
+      </c>
+      <c r="AC106" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD106" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE106" s="62">
+        <f>(SUM(X4:AB4)/5)</f>
+        <v>0.1318022857621107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-55943000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-5605000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>6285000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>6378000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>46406000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>143475000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>175976000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>259949000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>222926000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>328854000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>429477000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>425898000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>90400000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>250328000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>334162000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>387720000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>290495000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>839606000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>844015000</v>
+      </c>
+      <c r="X107" s="26"/>
+      <c r="Y107" s="26"/>
+      <c r="Z107" s="26"/>
+      <c r="AA107" s="26"/>
+      <c r="AB107" s="71">
+        <f>AB106*(1+AE107)/(AE108-AE107)</f>
+        <v>33118884414.646614</v>
+      </c>
+      <c r="AC107" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="AE104" s="64"/>
-    </row>
-    <row r="105" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-0.89980873388985216</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-2.1213202497769847</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:O105" si="35">(H106/G106)-1</f>
-        <v>1.479713603818622E-2</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="35"/>
-        <v>6.275948573220445</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="35"/>
-        <v>2.0917338275223032</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="35"/>
-        <v>0.2265272695591567</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="35"/>
-        <v>0.47718438878028824</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="35"/>
-        <v>-0.14242409087936481</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="35"/>
-        <v>0.47517113302172032</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="35"/>
-        <v>0.30598076958163811</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" ref="P105" si="36">(P106/O106)-1</f>
-        <v>-8.3333915436681893E-3</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" ref="Q105" si="37">(Q106/P106)-1</f>
-        <v>-0.78774260503688676</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" ref="R105" si="38">(R106/Q106)-1</f>
-        <v>1.7691150442477874</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" ref="S105" si="39">(S106/R106)-1</f>
-        <v>0.33489661564027995</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" ref="T105" si="40">(T106/S106)-1</f>
-        <v>0.16027555497034363</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" ref="U105" si="41">(U106/T106)-1</f>
-        <v>-0.25076085835138762</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" ref="V105" si="42">(V106/U106)-1</f>
-        <v>1.8902597290831169</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" ref="W105" si="43">(W106/V106)-1</f>
-        <v>5.2512726207292193E-3</v>
-      </c>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE105" s="26">
-        <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>9.226468725591136E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-55943000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-5605000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>6285000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>6378000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>46406000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>143475000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>175976000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>259949000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>222926000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>328854000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>429477000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>425898000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>90400000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>250328000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>334162000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>387720000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>290495000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>839606000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>844015000</v>
-      </c>
-      <c r="X106" s="57">
-        <f>W106*(1+$AE$106)</f>
-        <v>957991424.4013803</v>
-      </c>
-      <c r="Y106" s="57">
-        <f t="shared" ref="Y106:AB106" si="44">X106*(1+$AE$106)</f>
-        <v>1087359311.4181449</v>
-      </c>
-      <c r="Z106" s="57">
-        <f t="shared" si="44"/>
-        <v>1234197135.8110611</v>
-      </c>
-      <c r="AA106" s="57">
-        <f t="shared" si="44"/>
-        <v>1400864051.1457052</v>
-      </c>
-      <c r="AB106" s="57">
-        <f t="shared" si="44"/>
-        <v>1590037792.8706982</v>
-      </c>
-      <c r="AC106" s="38" t="s">
+      <c r="AD107" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AD106" s="39" t="s">
+      <c r="AE107" s="64">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="X108" s="71">
+        <f t="shared" ref="X108:Z108" si="39">X107+X106</f>
+        <v>1022000000</v>
+      </c>
+      <c r="Y108" s="71">
+        <f t="shared" si="39"/>
+        <v>1249000000</v>
+      </c>
+      <c r="Z108" s="71">
+        <f t="shared" si="39"/>
+        <v>1432000000</v>
+      </c>
+      <c r="AA108" s="71">
+        <f>AA107+AA106</f>
+        <v>1691000000</v>
+      </c>
+      <c r="AB108" s="71">
+        <f>AB107+AB106</f>
+        <v>35257884414.646614</v>
+      </c>
+      <c r="AC108" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD108" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="AE106" s="40">
-        <f>(SUM(X4:AB4)/5)</f>
-        <v>0.13504075686022204</v>
-      </c>
-    </row>
-    <row r="107" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="38"/>
-      <c r="Y107" s="38"/>
-      <c r="Z107" s="38"/>
-      <c r="AA107" s="38"/>
-      <c r="AB107" s="41">
-        <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>24229485101.02879</v>
-      </c>
-      <c r="AC107" s="42" t="s">
+      <c r="AE108" s="62">
+        <f>AE105</f>
+        <v>9.1200146494982537E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
+      <c r="X109" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="AD107" s="43" t="s">
+      <c r="Y109" s="41"/>
+    </row>
+    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="X110" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="AE107" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X108" s="41">
-        <f t="shared" ref="X108:Z108" si="45">X107+X106</f>
-        <v>957991424.4013803</v>
-      </c>
-      <c r="Y108" s="41">
-        <f t="shared" si="45"/>
-        <v>1087359311.4181449</v>
-      </c>
-      <c r="Z108" s="41">
-        <f t="shared" si="45"/>
-        <v>1234197135.8110611</v>
-      </c>
-      <c r="AA108" s="41">
-        <f>AA107+AA106</f>
-        <v>1400864051.1457052</v>
-      </c>
-      <c r="AB108" s="41">
-        <f>AB107+AB106</f>
-        <v>25819522893.899487</v>
-      </c>
-      <c r="AC108" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD108" s="45" t="s">
+      <c r="Y110" s="43">
+        <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
+        <v>27069805558.038921</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
+      <c r="X111" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="AE108" s="46">
-        <f>AE105</f>
-        <v>9.226468725591136E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y109" s="60"/>
-    </row>
-    <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X110" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y110" s="48">
-        <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>20327471157.908424</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X111" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y111" s="48">
+      <c r="Y111" s="43">
         <f>W40</f>
         <v>899136000</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="X112" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y112" s="48">
+      <c r="X112" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y112" s="43">
         <f>AE99</f>
         <v>3731410000</v>
       </c>
     </row>
     <row r="113" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X113" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y113" s="48">
+      <c r="X113" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y113" s="43">
         <f>Y110+Y111-Y112</f>
-        <v>17495197157.908424</v>
+        <v>24237531558.038921</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y114" s="49">
+      <c r="X114" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y114" s="42">
         <f>W34*(1+(5*AC16))</f>
         <v>27578069.91234573</v>
       </c>
     </row>
     <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="50" t="s">
+      <c r="X115" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y115" s="45">
+        <f>Y113/Y114</f>
+        <v>878.86975539171556</v>
+      </c>
+    </row>
+    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X116" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y116" s="46" cm="1">
+        <f t="array" ref="Y116">_FV(A1,"Price")</f>
+        <v>1845.71</v>
+      </c>
+    </row>
+    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X117" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y117" s="47">
+        <f>Y115/Y116-1</f>
+        <v>-0.52383107021595188</v>
+      </c>
+    </row>
+    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
+      <c r="X118" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="Y115" s="51">
-        <f>Y113/Y114</f>
-        <v>634.38801966617837</v>
-      </c>
-    </row>
-    <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X116" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y116" s="58" cm="1">
-        <f t="array" ref="Y116">_FV(A1,"Price")</f>
-        <v>2110.6</v>
-      </c>
-    </row>
-    <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y117" s="53">
-        <f>Y115/Y116-1</f>
-        <v>-0.69942764158714188</v>
-      </c>
-    </row>
-    <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y118" s="54" t="str">
+      <c r="Y118" s="48" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -11305,8 +10424,8 @@
     <hyperlink ref="W36" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809023000010/0001058090-23-000010-index.htm" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="W74" r:id="rId44" tooltip="https://www.sec.gov/Archives/edgar/data/1058090/000105809023000010/0001058090-23-000010-index.htm" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="X1" r:id="rId45" display="https://finbox.com/NYSE:CMG/explorer/revenue_proj" xr:uid="{E18C0759-933E-EF40-BC09-EE69D891C2E4}"/>
+    <hyperlink ref="AC106" r:id="rId46" xr:uid="{2B7671F1-AF42-E84B-B6DB-436EB9A7B6E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId46"/>
 </worksheet>
 </file>
--- a/Consumer/Chipotle Mexican Grill.xlsx
+++ b/Consumer/Chipotle Mexican Grill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515A2560-2D2D-6D40-959A-3D057C0D34C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D7F3A0-5695-D04D-85E1-1F479FC4E9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,12 +1308,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1337,12 +1331,6 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1498,12 +1486,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1514,6 +1496,9 @@
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1532,6 +1517,21 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1566,13 +1566,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
       <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1589,7 +1586,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1601,9 +1598,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1731,9 +1725,9 @@
     <v>Powered by Refinitiv</v>
     <v>2175.0100000000002</v>
     <v>1344.05</v>
-    <v>1.3408</v>
-    <v>-13.22</v>
-    <v>-7.1260000000000004E-3</v>
+    <v>1.323</v>
+    <v>81.12</v>
+    <v>4.4905E-2</v>
     <v>USD</v>
     <v>Chipotle Mexican Grill, Inc., together with its subsidiaries, owns and operates Chipotle Mexican Grill restaurants. The Company’s Chipotle Mexican Grill restaurants serve a relevant menu of burritos, burrito bowls (a burrito without the tortilla), quesadillas, tacos, and salads. The Company has approximately 3,200 restaurants in the United States, Canada, the United Kingdom, France and Germany. The Company manages its operations based on eight regions. It sells gift cards, which do not have expiration dates. In its Chipotle restaurants, the Company serves only meats and brands these meats as Responsibly Raised. The Company’s subsidiaries include Chipotle Mexican Grill Canada Corp., Chipotle Mexican Grill France SAS, Chipotle Mexican Grill Germany GMBH, Chipotle Mexican Grill of Berwyn Heights, LLC, Chipotle Mexican Grill of Colorado, LLC, Chipotle Mexican Grill of Kansas, LLC, Chipotle Mexican Grill of Maryland, LLC, SP Kitchens, LLC and Chipotle Mexican Grill Texas Holdings, LLC.</v>
     <v>104958</v>
@@ -1741,25 +1735,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>610 Newport Center Dr, Suite 1100, NEWPORT BEACH, CA, 92660 US</v>
-    <v>1862</v>
+    <v>1952.665</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45224.998578657032</v>
+    <v>45226.998274050784</v>
     <v>0</v>
-    <v>1832.165</v>
-    <v>50812791230</v>
+    <v>1856.5</v>
+    <v>51880410000</v>
     <v>CHIPOTLE MEXICAN GRILL, INC.</v>
     <v>CHIPOTLE MEXICAN GRILL, INC.</v>
-    <v>1849.94</v>
-    <v>46.012</v>
-    <v>1855.09</v>
-    <v>1841.87</v>
-    <v>1830</v>
-    <v>27587610</v>
+    <v>1884.73</v>
+    <v>44.785299999999999</v>
+    <v>1806.47</v>
+    <v>1887.59</v>
+    <v>27485000</v>
     <v>CMG</v>
     <v>CHIPOTLE MEXICAN GRILL, INC. (XNYS:CMG)</v>
-    <v>1</v>
-    <v>230485</v>
+    <v>905801</v>
+    <v>241723</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1811,7 +1804,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1828,7 +1820,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="43">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1839,7 +1831,6 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
@@ -1912,15 +1903,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1965,7 +1954,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1973,7 +1961,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2357,20 +2344,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY199"/>
+  <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S190" sqref="A190:S190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="2" max="20" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2429,7 +2416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
@@ -2570,7 +2557,7 @@
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2629,7 +2616,7 @@
         <v>2514801000</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2688,7 +2675,7 @@
         <v>1823946000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2747,7 +2734,7 @@
         <v>1823946000</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>22</v>
       </c>
@@ -2806,7 +2793,7 @@
         <v>690855000</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>58</v>
       </c>
@@ -2865,7 +2852,7 @@
         <v>27.47</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2924,7 +2911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2983,7 +2970,7 @@
         <v>242805000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -3130,7 +3117,7 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -3277,7 +3264,7 @@
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -3336,7 +3323,7 @@
         <v>86309000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>29</v>
       </c>
@@ -3395,7 +3382,7 @@
         <v>448050000</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>59</v>
       </c>
@@ -3536,7 +3523,7 @@
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -3595,7 +3582,7 @@
         <v>-206000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -3654,7 +3641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -3713,7 +3700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -3772,7 +3759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -3831,7 +3818,7 @@
         <v>-206000</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -3890,7 +3877,7 @@
         <v>448256000</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -3949,7 +3936,7 @@
         <v>106466000</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -4008,7 +3995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -4067,7 +4054,7 @@
         <v>341790000</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -4126,7 +4113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -4185,7 +4172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -4244,7 +4231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -4303,7 +4290,7 @@
         <v>341790000</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -4362,7 +4349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
         <v>44</v>
       </c>
@@ -4421,7 +4408,7 @@
         <v>341790000</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>60</v>
       </c>
@@ -4639,7 +4626,7 @@
         <v>5.0494915158474728E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -4698,7 +4685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -4757,7 +4744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -4816,7 +4803,7 @@
         <v>341790000</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -4875,7 +4862,7 @@
         <v>27604000</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -4934,7 +4921,7 @@
         <v>12.38</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -4993,7 +4980,7 @@
         <v>12.38</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -5052,7 +5039,7 @@
         <v>27747000</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -5111,7 +5098,7 @@
         <v>12.32</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
@@ -5170,7 +5157,7 @@
         <v>12.32</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -5229,7 +5216,7 @@
         <v>526821000</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -5288,7 +5275,7 @@
         <v>19.059999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -5347,7 +5334,7 @@
         <v>448050000</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -5406,7 +5393,7 @@
         <v>448050000</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
@@ -5465,7 +5452,7 @@
         <v>23960</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>62</v>
       </c>
@@ -5524,7 +5511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>63</v>
       </c>
@@ -5583,7 +5570,7 @@
         <v>78771000</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -5642,7 +5629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
@@ -5701,7 +5688,7 @@
         <v>1556419000</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -5760,7 +5747,7 @@
         <v>1356008000</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
@@ -5819,7 +5806,7 @@
         <v>504866000</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>67</v>
       </c>
@@ -5878,7 +5865,7 @@
         <v>851142000</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
@@ -5937,7 +5924,7 @@
         <v>60985000</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>69</v>
       </c>
@@ -5996,7 +5983,7 @@
         <v>60985000</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>70</v>
       </c>
@@ -6055,7 +6042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>71</v>
       </c>
@@ -6114,7 +6101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>72</v>
       </c>
@@ -6173,7 +6160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
@@ -6232,7 +6219,7 @@
         <v>36004000</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>74</v>
       </c>
@@ -6291,7 +6278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>75</v>
       </c>
@@ -6350,7 +6337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>76</v>
       </c>
@@ -6409,7 +6396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>77</v>
       </c>
@@ -6468,7 +6455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>78</v>
       </c>
@@ -6527,7 +6514,7 @@
         <v>36004000</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>79</v>
       </c>
@@ -6586,7 +6573,7 @@
         <v>103422000</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>80</v>
       </c>
@@ -6645,7 +6632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>81</v>
       </c>
@@ -6704,7 +6691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>82</v>
       </c>
@@ -6763,7 +6750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>83</v>
       </c>
@@ -6822,7 +6809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>84</v>
       </c>
@@ -6881,7 +6868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>85</v>
       </c>
@@ -6940,7 +6927,7 @@
         <v>5996016000</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>86</v>
       </c>
@@ -6999,7 +6986,7 @@
         <v>5455683000</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>87</v>
       </c>
@@ -7058,7 +7045,7 @@
         <v>5455683000</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>88</v>
       </c>
@@ -7117,7 +7104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>89</v>
       </c>
@@ -7176,7 +7163,7 @@
         <v>430762000</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>90</v>
       </c>
@@ -7235,7 +7222,7 @@
         <v>430762000</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>91</v>
       </c>
@@ -7294,7 +7281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -7353,7 +7340,7 @@
         <v>109571000</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>93</v>
       </c>
@@ -7412,7 +7399,7 @@
         <v>21939000</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -7471,7 +7458,7 @@
         <v>21939000</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -7530,7 +7517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
@@ -7589,7 +7576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>97</v>
       </c>
@@ -7648,7 +7635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>98</v>
       </c>
@@ -7707,7 +7694,7 @@
         <v>87632000</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>99</v>
       </c>
@@ -7766,7 +7753,7 @@
         <v>7552435000</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>100</v>
       </c>
@@ -7825,7 +7812,7 @@
         <v>579230000</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>101</v>
       </c>
@@ -7884,7 +7871,7 @@
         <v>162041000</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>102</v>
       </c>
@@ -7943,7 +7930,7 @@
         <v>98423000</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>103</v>
       </c>
@@ -8002,7 +7989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>104</v>
       </c>
@@ -8061,7 +8048,7 @@
         <v>318766000</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>105</v>
       </c>
@@ -8120,7 +8107,7 @@
         <v>244061000</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>106</v>
       </c>
@@ -8179,7 +8166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>107</v>
       </c>
@@ -8238,7 +8225,7 @@
         <v>244061000</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>108</v>
       </c>
@@ -8297,7 +8284,7 @@
         <v>158959000</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>109</v>
       </c>
@@ -8356,7 +8343,7 @@
         <v>158959000</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>110</v>
       </c>
@@ -8415,7 +8402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>111</v>
       </c>
@@ -8474,7 +8461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>112</v>
       </c>
@@ -8533,7 +8520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>113</v>
       </c>
@@ -8592,7 +8579,7 @@
         <v>982250000</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>114</v>
       </c>
@@ -8651,7 +8638,7 @@
         <v>3643931000</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>115</v>
       </c>
@@ -8710,7 +8697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>116</v>
       </c>
@@ -8769,7 +8756,7 @@
         <v>3643931000</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>117</v>
       </c>
@@ -8828,7 +8815,7 @@
         <v>159368000</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>118</v>
       </c>
@@ -8887,7 +8874,7 @@
         <v>106440000</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>119</v>
       </c>
@@ -8946,7 +8933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -9005,7 +8992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -9064,7 +9051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>110</v>
       </c>
@@ -9123,7 +9110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>120</v>
       </c>
@@ -9182,7 +9169,7 @@
         <v>52928000</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>121</v>
       </c>
@@ -9241,7 +9228,7 @@
         <v>3803299000</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>122</v>
       </c>
@@ -9300,7 +9287,7 @@
         <v>4785549000</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>123</v>
       </c>
@@ -9359,7 +9346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>124</v>
       </c>
@@ -9418,7 +9405,7 @@
         <v>1881308000</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>125</v>
       </c>
@@ -9477,7 +9464,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>126</v>
       </c>
@@ -9536,7 +9523,7 @@
         <v>1880933000</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>127</v>
       </c>
@@ -9595,7 +9582,7 @@
         <v>4569152000</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>128</v>
       </c>
@@ -9654,7 +9641,7 @@
         <v>5461682000</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>129</v>
       </c>
@@ -9713,7 +9700,7 @@
         <v>-6952000</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>130</v>
       </c>
@@ -9772,7 +9759,7 @@
         <v>2766886000</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>131</v>
       </c>
@@ -9831,7 +9818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>132</v>
       </c>
@@ -9890,7 +9877,7 @@
         <v>2766886000</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>133</v>
       </c>
@@ -9949,7 +9936,7 @@
         <v>7552435000</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="32" t="s">
         <v>134</v>
       </c>
@@ -10090,7 +10077,7 @@
       <c r="AC129" s="13"/>
       <c r="AD129" s="13"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>135</v>
       </c>
@@ -10149,7 +10136,7 @@
         <v>3887992000</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>136</v>
       </c>
@@ -10208,7 +10195,7 @@
         <v>-504866000</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>137</v>
       </c>
@@ -10267,7 +10254,7 @@
         <v>-18.25</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>138</v>
       </c>
@@ -10326,7 +10313,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>139</v>
       </c>
@@ -10385,7 +10372,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>140</v>
       </c>
@@ -10444,7 +10431,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>141</v>
       </c>
@@ -10503,7 +10490,7 @@
         <v>104958</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>24</v>
       </c>
@@ -10562,7 +10549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>142</v>
       </c>
@@ -10621,7 +10608,7 @@
         <v>341790000</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>143</v>
       </c>
@@ -10680,7 +10667,7 @@
         <v>78771000</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>144</v>
       </c>
@@ -10739,7 +10726,7 @@
         <v>48391000</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="32" t="s">
         <v>145</v>
       </c>
@@ -10886,7 +10873,7 @@
       <c r="AC143" s="13"/>
       <c r="AD143" s="13"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>146</v>
       </c>
@@ -10945,7 +10932,7 @@
         <v>8313000</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>147</v>
       </c>
@@ -11004,7 +10991,7 @@
         <v>16021000</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -11063,7 +11050,7 @@
         <v>-6615000</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -11122,7 +11109,7 @@
         <v>113558000</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>150</v>
       </c>
@@ -11181,7 +11168,7 @@
         <v>4368000</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>151</v>
       </c>
@@ -11240,7 +11227,7 @@
         <v>-1399000</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>152</v>
       </c>
@@ -11299,7 +11286,7 @@
         <v>-6796000</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>153</v>
       </c>
@@ -11358,7 +11345,7 @@
         <v>35899000</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>154</v>
       </c>
@@ -11417,7 +11404,7 @@
         <v>81486000</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>155</v>
       </c>
@@ -11476,7 +11463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>156</v>
       </c>
@@ -11535,7 +11522,7 @@
         <v>582510000</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>157</v>
       </c>
@@ -11594,7 +11581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>158</v>
       </c>
@@ -11653,7 +11640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>159</v>
       </c>
@@ -11712,7 +11699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>160</v>
       </c>
@@ -11771,7 +11758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>161</v>
       </c>
@@ -11830,7 +11817,7 @@
         <v>-137232000</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>162</v>
       </c>
@@ -11889,7 +11876,7 @@
         <v>-137232000</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>163</v>
       </c>
@@ -11948,7 +11935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>164</v>
       </c>
@@ -12007,7 +11994,7 @@
         <v>-254911000</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>165</v>
       </c>
@@ -12066,7 +12053,7 @@
         <v>120926000</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>166</v>
       </c>
@@ -12125,7 +12112,7 @@
         <v>-375837000</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>167</v>
       </c>
@@ -12184,7 +12171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>168</v>
       </c>
@@ -12243,7 +12230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>169</v>
       </c>
@@ -12302,7 +12289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>170</v>
       </c>
@@ -12361,7 +12348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>171</v>
       </c>
@@ -12420,7 +12407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>155</v>
       </c>
@@ -12479,7 +12466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>172</v>
       </c>
@@ -12538,7 +12525,7 @@
         <v>-392143000</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>173</v>
       </c>
@@ -12597,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>174</v>
       </c>
@@ -12656,7 +12643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>175</v>
       </c>
@@ -12715,7 +12702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>176</v>
       </c>
@@ -12774,7 +12761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>177</v>
       </c>
@@ -12833,7 +12820,7 @@
         <v>-95045000</v>
       </c>
     </row>
-    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>178</v>
       </c>
@@ -12892,7 +12879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>179</v>
       </c>
@@ -12951,7 +12938,7 @@
         <v>-95045000</v>
       </c>
     </row>
-    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>180</v>
       </c>
@@ -13010,7 +12997,7 @@
         <v>-185000</v>
       </c>
     </row>
-    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>155</v>
       </c>
@@ -13069,7 +13056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>181</v>
       </c>
@@ -13128,7 +13115,7 @@
         <v>-95230000</v>
       </c>
     </row>
-    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>182</v>
       </c>
@@ -13187,7 +13174,7 @@
         <v>-25000</v>
       </c>
     </row>
-    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>183</v>
       </c>
@@ -13246,7 +13233,7 @@
         <v>95137000</v>
       </c>
     </row>
-    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>54</v>
       </c>
@@ -13305,7 +13292,7 @@
         <v>526821000</v>
       </c>
     </row>
-    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>55</v>
       </c>
@@ -13364,7 +13351,7 @@
         <v>19.059999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
@@ -13423,7 +13410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>185</v>
       </c>
@@ -13482,7 +13469,7 @@
         <v>445278000</v>
       </c>
     </row>
-    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="32" t="s">
         <v>186</v>
       </c>
@@ -15423,7 +15410,7 @@
       <c r="XET190" s="29"/>
       <c r="XEY190" s="2"/>
     </row>
-    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>187</v>
       </c>
@@ -15482,7 +15469,7 @@
         <v>445278000</v>
       </c>
     </row>
-    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>188</v>
       </c>
@@ -15541,7 +15528,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>189</v>
       </c>
@@ -15600,7 +15587,7 @@
         <v>27.17</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>190</v>
       </c>
@@ -15659,12 +15646,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
     </row>
-    <row r="197" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="ROIC AI" display="ROIC AI" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -15681,7 +15665,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15689,48 +15673,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="e" vm="1">
+    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-    </row>
-    <row r="2" spans="1:16" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+    </row>
+    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>50812791230</v>
+        <v>51880410000</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>201</v>
@@ -15758,7 +15742,7 @@
       </c>
       <c r="I3" s="43">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>35197714866.814903</v>
+        <v>35458954164.119331</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>205</v>
@@ -15766,49 +15750,49 @@
       <c r="K3" s="44"/>
       <c r="L3" s="45"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="48"/>
+      <c r="O3" s="118"/>
       <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
+      <c r="A4" s="47">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-2531984000</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <f>Financials!O17*0.01</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="49">
         <f>SUM(C13:E13)/3</f>
         <v>0.40945266913974221</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="51">
         <f>A5*(1+(5*G3))</f>
-        <v>27506440.584471859</v>
-      </c>
-      <c r="H4" s="54" t="s">
+        <v>27404132.487888914</v>
+      </c>
+      <c r="H4" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="53">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>28834553345.716854</v>
-      </c>
-      <c r="J4" s="52" t="s">
+        <v>29063486812.912285</v>
+      </c>
+      <c r="J4" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="56">
+      <c r="K4" s="54">
         <f>(Financials!O172*-1)/Model!A3</f>
         <v>0</v>
       </c>
@@ -15816,172 +15800,172 @@
         <v>212</v>
       </c>
       <c r="M4" s="46"/>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="119" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="58"/>
+      <c r="O4" s="120"/>
       <c r="P4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" cm="1">
+      <c r="A5" s="51" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>27587610</v>
-      </c>
-      <c r="B5" s="50" t="s">
+        <v>27485000</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="55">
         <f>Financials!O34*0.01</f>
         <v>0.12</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <f>SUM(C15:E15)/3</f>
         <v>0.54825004778415287</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="51">
         <f>Financials!O56</f>
         <v>1356008000</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>26302569345.716854</v>
-      </c>
-      <c r="J5" s="52" t="s">
+        <v>26531502812.912285</v>
+      </c>
+      <c r="J5" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="60" cm="1">
+      <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>1841.87</v>
+        <v>1887.59</v>
       </c>
       <c r="L5" s="39" t="s">
         <v>219</v>
       </c>
       <c r="M5" s="46"/>
-      <c r="N5" s="61" t="s">
+      <c r="N5" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="62">
+      <c r="O5" s="58">
         <f>Financials!O20</f>
         <v>0</v>
       </c>
       <c r="P5" s="46"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63">
+      <c r="A6" s="59">
         <f>O20/F10</f>
-        <v>5.1770546337238921</v>
-      </c>
-      <c r="B6" s="50" t="s">
+        <v>5.2858288334182371</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="49">
         <f>Financials!O190</f>
         <v>0.13472060731428978</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="49">
         <f>Financials!O33/Financials!O126</f>
         <v>0.40272674768674965</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="53">
         <f>Financials!O96+Financials!O105</f>
         <v>3887992000</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="61">
         <f>N25</f>
-        <v>8.9299628784531959E-2</v>
-      </c>
-      <c r="J6" s="54" t="s">
+        <v>8.8825909515687751E-2</v>
+      </c>
+      <c r="J6" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="62">
         <f>I5/G4</f>
-        <v>956.23311438432268</v>
-      </c>
-      <c r="L6" s="67" t="s">
+        <v>968.15700422692521</v>
+      </c>
+      <c r="L6" s="63" t="s">
         <v>225</v>
       </c>
       <c r="M6" s="46"/>
-      <c r="N6" s="68" t="s">
+      <c r="N6" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="69">
+      <c r="O6" s="65">
         <f>Financials!O96</f>
         <v>244061000</v>
       </c>
       <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70">
+      <c r="A7" s="66">
         <f>O20/F12</f>
-        <v>42.238396699916876</v>
-      </c>
-      <c r="B7" s="71" t="s">
+        <v>43.12586034912718</v>
+      </c>
+      <c r="B7" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="68">
         <f>F14/A3</f>
-        <v>1.9640723838268075E-2</v>
-      </c>
-      <c r="D7" s="73" t="s">
+        <v>1.9236548053494566E-2</v>
+      </c>
+      <c r="D7" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="70">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.16552696383014084</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="75">
+      <c r="G7" s="71">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>1.4051869140976534</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="77">
+      <c r="I7" s="73">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="78" t="s">
+      <c r="J7" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="79">
+      <c r="K7" s="75">
         <f>K6/K5-1</f>
-        <v>-0.48083571892461319</v>
-      </c>
-      <c r="L7" s="80" t="s">
+        <v>-0.48709359329784263</v>
+      </c>
+      <c r="L7" s="76" t="s">
         <v>231</v>
       </c>
       <c r="M7" s="46"/>
-      <c r="N7" s="68" t="s">
+      <c r="N7" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="69">
+      <c r="O7" s="65">
         <f>Financials!O105</f>
         <v>3643931000</v>
       </c>
       <c r="P7" s="46"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="81"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -15994,409 +15978,409 @@
       <c r="K8" s="46"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
-      <c r="N8" s="82" t="s">
+      <c r="N8" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="83">
+      <c r="O8" s="79">
         <f>O5/(O6+O7)</f>
         <v>0</v>
       </c>
       <c r="P8" s="46"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85">
+      <c r="A9" s="80"/>
+      <c r="B9" s="81">
         <v>2019</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="81">
         <v>2020</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="81">
         <v>2021</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="81">
         <v>2022</v>
       </c>
-      <c r="F9" s="86">
+      <c r="F9" s="82">
         <v>2023</v>
       </c>
-      <c r="G9" s="87">
+      <c r="G9" s="83">
         <v>2024</v>
       </c>
-      <c r="H9" s="87">
+      <c r="H9" s="83">
         <v>2025</v>
       </c>
-      <c r="I9" s="87">
+      <c r="I9" s="83">
         <v>2026</v>
       </c>
-      <c r="J9" s="87">
+      <c r="J9" s="83">
         <v>2027</v>
       </c>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="68" t="s">
+      <c r="K9" s="84"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="69">
+      <c r="O9" s="65">
         <f>Financials!O25</f>
         <v>353865000</v>
       </c>
       <c r="P9" s="46"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="87">
         <v>5586369000</v>
       </c>
-      <c r="C10" s="91">
+      <c r="C10" s="87">
         <v>5984634000</v>
       </c>
-      <c r="D10" s="91">
+      <c r="D10" s="87">
         <v>7547061000</v>
       </c>
-      <c r="E10" s="91">
+      <c r="E10" s="87">
         <v>8634652000</v>
       </c>
-      <c r="F10" s="92">
+      <c r="F10" s="88">
         <v>9815000000</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="87">
         <v>11085000000</v>
       </c>
-      <c r="H10" s="91">
+      <c r="H10" s="87">
         <v>12503000000</v>
       </c>
-      <c r="I10" s="91">
+      <c r="I10" s="87">
         <v>14330000000</v>
       </c>
-      <c r="J10" s="91">
+      <c r="J10" s="87">
         <v>16197000000</v>
       </c>
-      <c r="K10" s="93" t="s">
+      <c r="K10" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="68" t="s">
+      <c r="N10" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="69">
+      <c r="O10" s="65">
         <f>Financials!O24</f>
         <v>1468164000</v>
       </c>
       <c r="P10" s="46"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95">
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>7.1292283055415684E-2</v>
       </c>
-      <c r="D11" s="95">
+      <c r="D11" s="91">
         <f t="shared" si="0"/>
         <v>0.26107310823017738</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="91">
         <f t="shared" si="0"/>
         <v>0.14410788517543449</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="92">
         <f t="shared" si="0"/>
         <v>0.13669896598033127</v>
       </c>
-      <c r="G11" s="95">
+      <c r="G11" s="91">
         <f t="shared" si="0"/>
         <v>0.12939378502292409</v>
       </c>
-      <c r="H11" s="95">
+      <c r="H11" s="91">
         <f t="shared" si="0"/>
         <v>0.12792061344158778</v>
       </c>
-      <c r="I11" s="95">
+      <c r="I11" s="91">
         <f t="shared" si="0"/>
         <v>0.14612493001679594</v>
       </c>
-      <c r="J11" s="95">
+      <c r="J11" s="91">
         <f t="shared" si="0"/>
         <v>0.13028611304954651</v>
       </c>
-      <c r="K11" s="97">
+      <c r="K11" s="93">
         <f>SUM(F11:J11)/5</f>
         <v>0.13408488150223713</v>
       </c>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="68" t="s">
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="98">
+      <c r="O11" s="94">
         <f>O9/O10</f>
         <v>0.2410255257587027</v>
       </c>
       <c r="P11" s="46"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="91">
+      <c r="B12" s="87">
         <v>350158000</v>
       </c>
-      <c r="C12" s="91">
+      <c r="C12" s="87">
         <v>355766000</v>
       </c>
-      <c r="D12" s="91">
+      <c r="D12" s="87">
         <v>652984000</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="87">
         <v>899101000</v>
       </c>
-      <c r="F12" s="92">
+      <c r="F12" s="88">
         <v>1203000000</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="87">
         <v>1442000000</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="87">
         <v>1743000000</v>
       </c>
-      <c r="I12" s="91">
+      <c r="I12" s="87">
         <v>2102000000</v>
       </c>
-      <c r="J12" s="91">
+      <c r="J12" s="87">
         <v>2457000000</v>
       </c>
-      <c r="K12" s="93" t="s">
+      <c r="K12" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="99" t="s">
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="100">
+      <c r="O12" s="96">
         <f>O8*(1-O11)</f>
         <v>0</v>
       </c>
       <c r="P12" s="46"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95">
+      <c r="A13" s="90"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>1.6015627231135587E-2</v>
       </c>
-      <c r="D13" s="95">
+      <c r="D13" s="91">
         <f t="shared" si="1"/>
         <v>0.83543115418561631</v>
       </c>
-      <c r="E13" s="95">
+      <c r="E13" s="91">
         <f t="shared" si="1"/>
         <v>0.37691122600247473</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F13" s="92">
         <f t="shared" si="1"/>
         <v>0.33800318317964284</v>
       </c>
-      <c r="G13" s="95">
+      <c r="G13" s="91">
         <f t="shared" si="1"/>
         <v>0.19866999168744814</v>
       </c>
-      <c r="H13" s="95">
+      <c r="H13" s="91">
         <f t="shared" si="1"/>
         <v>0.20873786407766981</v>
       </c>
-      <c r="I13" s="95">
+      <c r="I13" s="91">
         <f t="shared" si="1"/>
         <v>0.20596672403901328</v>
       </c>
-      <c r="J13" s="95">
+      <c r="J13" s="91">
         <f t="shared" si="1"/>
         <v>0.16888677450047584</v>
       </c>
-      <c r="K13" s="97">
+      <c r="K13" s="93">
         <f>SUM(F13:J13)/5</f>
         <v>0.22405290749684997</v>
       </c>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="57" t="s">
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="119" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="58"/>
+      <c r="O13" s="120"/>
       <c r="P13" s="46"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="91">
+      <c r="B14" s="87">
         <v>387720000</v>
       </c>
-      <c r="C14" s="91">
+      <c r="C14" s="87">
         <v>290495000</v>
       </c>
-      <c r="D14" s="91">
+      <c r="D14" s="87">
         <v>839606000</v>
       </c>
-      <c r="E14" s="91">
+      <c r="E14" s="87">
         <v>844015000</v>
       </c>
-      <c r="F14" s="92">
+      <c r="F14" s="88">
         <v>998000000</v>
       </c>
-      <c r="G14" s="91">
+      <c r="G14" s="87">
         <v>1259000000</v>
       </c>
-      <c r="H14" s="91">
+      <c r="H14" s="87">
         <v>1464000000</v>
       </c>
-      <c r="I14" s="91">
+      <c r="I14" s="87">
         <v>1880000000</v>
       </c>
-      <c r="J14" s="91">
+      <c r="J14" s="87">
         <v>2208000000</v>
       </c>
-      <c r="K14" s="93" t="s">
+      <c r="K14" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="68" t="s">
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="98">
+      <c r="O14" s="94">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
+        <v>4.845E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="101"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95">
+      <c r="A15" s="97"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91">
         <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
         <v>-0.25076085835138762</v>
       </c>
-      <c r="D15" s="95">
+      <c r="D15" s="91">
         <f t="shared" si="2"/>
         <v>1.8902597290831169</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E15" s="91">
         <f t="shared" si="2"/>
         <v>5.2512726207292193E-3</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F15" s="92">
         <f t="shared" si="2"/>
         <v>0.18244343998625623</v>
       </c>
-      <c r="G15" s="95">
+      <c r="G15" s="91">
         <f t="shared" si="2"/>
         <v>0.26152304609218446</v>
       </c>
-      <c r="H15" s="95">
+      <c r="H15" s="91">
         <f t="shared" si="2"/>
         <v>0.16282764098490876</v>
       </c>
-      <c r="I15" s="95">
+      <c r="I15" s="91">
         <f t="shared" si="2"/>
         <v>0.28415300546448097</v>
       </c>
-      <c r="J15" s="95">
+      <c r="J15" s="91">
         <f t="shared" si="2"/>
         <v>0.1744680851063829</v>
       </c>
-      <c r="K15" s="97">
+      <c r="K15" s="93">
         <f>SUM(F15:J15)/5</f>
         <v>0.21308304352684265</v>
       </c>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="68" t="s">
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="102" cm="1">
+      <c r="O15" s="98" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.3408</v>
+        <v>1.323</v>
       </c>
       <c r="P15" s="46"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="103">
+      <c r="B16" s="99">
         <v>7.7249087503713162E-2</v>
       </c>
-      <c r="C16" s="103">
+      <c r="C16" s="99">
         <v>4.6464566568679089E-2</v>
       </c>
-      <c r="D16" s="103">
+      <c r="D16" s="99">
         <v>0.1062579327045383</v>
       </c>
-      <c r="E16" s="103">
+      <c r="E16" s="99">
         <v>0.14528506174262426</v>
       </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="68" t="s">
+      <c r="F16" s="100"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="98">
+      <c r="O16" s="94">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="46"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="89"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="108" t="s">
+      <c r="A17" s="85"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="104" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="109">
+      <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6132480000000006E-2</v>
+        <v>9.5482650000000002E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="57" t="s">
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="119" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="58"/>
+      <c r="O18" s="120"/>
       <c r="P18" s="46"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16405,24 +16389,24 @@
         <v>Hotels &amp; Entertainment Services</v>
       </c>
       <c r="B19" s="110"/>
-      <c r="C19" s="111" cm="1">
+      <c r="C19" s="121" cm="1">
         <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1998</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="68" t="s">
+      <c r="D19" s="121"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="113">
+      <c r="O19" s="107">
         <f>O6+O7</f>
         <v>3887992000</v>
       </c>
@@ -16437,20 +16421,20 @@
       <c r="C20" s="110"/>
       <c r="D20" s="110"/>
       <c r="E20" s="110"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="68" t="s">
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="113" cm="1">
+      <c r="O20" s="107" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>50812791230</v>
+        <v>51880410000</v>
       </c>
       <c r="P20" s="46"/>
     </row>
@@ -16460,19 +16444,19 @@
       <c r="C21" s="110"/>
       <c r="D21" s="110"/>
       <c r="E21" s="110"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="68" t="s">
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="113">
+      <c r="O21" s="107">
         <f>O19+O20</f>
-        <v>54700783230</v>
+        <v>55768402000</v>
       </c>
       <c r="P21" s="46"/>
     </row>
@@ -16482,20 +16466,20 @@
       <c r="C22" s="110"/>
       <c r="D22" s="110"/>
       <c r="E22" s="110"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="82" t="s">
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="114">
+      <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>7.1077446618125872E-2</v>
+        <v>6.9716754659744418E-2</v>
       </c>
       <c r="P22" s="46"/>
     </row>
@@ -16505,20 +16489,20 @@
       <c r="C23" s="110"/>
       <c r="D23" s="110"/>
       <c r="E23" s="110"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="108" t="s">
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="115">
+      <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.92892255338187413</v>
+        <v>0.93028324534025553</v>
       </c>
       <c r="P23" s="46"/>
     </row>
@@ -16528,18 +16512,18 @@
       <c r="C24" s="110"/>
       <c r="D24" s="110"/>
       <c r="E24" s="110"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="116" t="s">
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="111" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="117"/>
+      <c r="O24" s="112"/>
       <c r="P24" s="46"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16548,19 +16532,19 @@
       <c r="C25" s="110"/>
       <c r="D25" s="110"/>
       <c r="E25" s="110"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="118">
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.9299628784531959E-2</v>
-      </c>
-      <c r="O25" s="119"/>
+        <v>8.8825909515687751E-2</v>
+      </c>
+      <c r="O25" s="114"/>
       <c r="P25" s="46"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16569,15 +16553,15 @@
       <c r="C26" s="110"/>
       <c r="D26" s="110"/>
       <c r="E26" s="110"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
       <c r="O26" s="46"/>
       <c r="P26" s="46"/>
     </row>
@@ -16587,69 +16571,69 @@
       <c r="C27" s="110"/>
       <c r="D27" s="110"/>
       <c r="E27" s="110"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
       <c r="O27" s="46"/>
       <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
       <c r="O28" s="46"/>
       <c r="P28" s="46"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
       <c r="O29" s="46"/>
       <c r="P29" s="46"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
       <c r="O30" s="46"/>
       <c r="P30" s="46"/>
     </row>
@@ -16690,526 +16674,526 @@
       <c r="P32" s="46"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="89"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="89"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="89"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="89"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="89"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="89"/>
-      <c r="P36" s="89"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="89"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="89"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="89"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="89"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="85"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="89"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="89"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="89"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="89"/>
-      <c r="P41" s="89"/>
+      <c r="A41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="89"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="89"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="89"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="89"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="85"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="89"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="89"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="89"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="85"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="89"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
-      <c r="O46" s="89"/>
-      <c r="P46" s="89"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="89"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="89"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="85"/>
+      <c r="P47" s="85"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="89"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="89"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="85"/>
+      <c r="N48" s="85"/>
+      <c r="O48" s="85"/>
+      <c r="P48" s="85"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="89"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="89"/>
-      <c r="P49" s="89"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="85"/>
+      <c r="O49" s="85"/>
+      <c r="P49" s="85"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="89"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="89"/>
-      <c r="P50" s="89"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="85"/>
+      <c r="O50" s="85"/>
+      <c r="P50" s="85"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="89"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="89"/>
-      <c r="P51" s="89"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="85"/>
+      <c r="N51" s="85"/>
+      <c r="O51" s="85"/>
+      <c r="P51" s="85"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="89"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="89"/>
-      <c r="M52" s="89"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="89"/>
-      <c r="P52" s="89"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="85"/>
+      <c r="O52" s="85"/>
+      <c r="P52" s="85"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="89"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="89"/>
-      <c r="O53" s="89"/>
-      <c r="P53" s="89"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="85"/>
+      <c r="P53" s="85"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="89"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="89"/>
-      <c r="M54" s="89"/>
-      <c r="N54" s="89"/>
-      <c r="O54" s="89"/>
-      <c r="P54" s="89"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="85"/>
+      <c r="N54" s="85"/>
+      <c r="O54" s="85"/>
+      <c r="P54" s="85"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="89"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89"/>
-      <c r="J55" s="89"/>
-      <c r="K55" s="89"/>
-      <c r="L55" s="89"/>
-      <c r="M55" s="89"/>
-      <c r="N55" s="89"/>
-      <c r="O55" s="89"/>
-      <c r="P55" s="89"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="89"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="89"/>
-      <c r="I56" s="89"/>
-      <c r="J56" s="89"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="89"/>
-      <c r="M56" s="89"/>
-      <c r="N56" s="89"/>
-      <c r="O56" s="89"/>
-      <c r="P56" s="89"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="85"/>
+      <c r="M56" s="85"/>
+      <c r="N56" s="85"/>
+      <c r="O56" s="85"/>
+      <c r="P56" s="85"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="89"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
-      <c r="I57" s="89"/>
-      <c r="J57" s="89"/>
-      <c r="K57" s="89"/>
-      <c r="L57" s="89"/>
-      <c r="M57" s="89"/>
-      <c r="N57" s="89"/>
-      <c r="O57" s="89"/>
-      <c r="P57" s="89"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="85"/>
+      <c r="O57" s="85"/>
+      <c r="P57" s="85"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="89"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="89"/>
-      <c r="J58" s="89"/>
-      <c r="K58" s="89"/>
-      <c r="L58" s="89"/>
-      <c r="M58" s="89"/>
-      <c r="N58" s="89"/>
-      <c r="O58" s="89"/>
-      <c r="P58" s="89"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="85"/>
+      <c r="O58" s="85"/>
+      <c r="P58" s="85"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="89"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="89"/>
-      <c r="H59" s="89"/>
-      <c r="I59" s="89"/>
-      <c r="J59" s="89"/>
-      <c r="K59" s="89"/>
-      <c r="L59" s="89"/>
-      <c r="M59" s="89"/>
-      <c r="N59" s="89"/>
-      <c r="O59" s="89"/>
-      <c r="P59" s="89"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="85"/>
+      <c r="M59" s="85"/>
+      <c r="N59" s="85"/>
+      <c r="O59" s="85"/>
+      <c r="P59" s="85"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="89"/>
-      <c r="B60" s="89"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="89"/>
-      <c r="I60" s="89"/>
-      <c r="J60" s="89"/>
-      <c r="K60" s="89"/>
-      <c r="L60" s="89"/>
-      <c r="M60" s="89"/>
-      <c r="N60" s="89"/>
-      <c r="O60" s="89"/>
-      <c r="P60" s="89"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="85"/>
+      <c r="M60" s="85"/>
+      <c r="N60" s="85"/>
+      <c r="O60" s="85"/>
+      <c r="P60" s="85"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="89"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="89"/>
-      <c r="J61" s="89"/>
-      <c r="K61" s="89"/>
-      <c r="L61" s="89"/>
-      <c r="M61" s="89"/>
-      <c r="N61" s="89"/>
-      <c r="O61" s="89"/>
-      <c r="P61" s="89"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="85"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="85"/>
+      <c r="M61" s="85"/>
+      <c r="N61" s="85"/>
+      <c r="O61" s="85"/>
+      <c r="P61" s="85"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O62" s="46"/>

--- a/Consumer/Chipotle Mexican Grill.xlsx
+++ b/Consumer/Chipotle Mexican Grill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D7F3A0-5695-D04D-85E1-1F479FC4E9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B313886-0DED-614E-990A-A7F2995B7F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -993,6 +999,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1076,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1121,65 +1133,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1188,23 +1143,212 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,7 +1358,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1287,130 +1453,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1419,119 +1466,252 @@
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1566,10 +1746,11 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Quality"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1586,7 +1767,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.4839999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1598,6 +1779,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1723,11 +1905,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2175.0100000000002</v>
+    <v>2238.5</v>
     <v>1344.05</v>
-    <v>1.323</v>
-    <v>81.12</v>
-    <v>4.4905E-2</v>
+    <v>1.3333999999999999</v>
+    <v>-10.48</v>
+    <v>-4.7210000000000004E-3</v>
+    <v>20.47</v>
+    <v>9.2659999999999999E-3</v>
     <v>USD</v>
     <v>Chipotle Mexican Grill, Inc., together with its subsidiaries, owns and operates Chipotle Mexican Grill restaurants. The Company’s Chipotle Mexican Grill restaurants serve a relevant menu of burritos, burrito bowls (a burrito without the tortilla), quesadillas, tacos, and salads. The Company has approximately 3,200 restaurants in the United States, Canada, the United Kingdom, France and Germany. The Company manages its operations based on eight regions. It sells gift cards, which do not have expiration dates. In its Chipotle restaurants, the Company serves only meats and brands these meats as Responsibly Raised. The Company’s subsidiaries include Chipotle Mexican Grill Canada Corp., Chipotle Mexican Grill France SAS, Chipotle Mexican Grill Germany GMBH, Chipotle Mexican Grill of Berwyn Heights, LLC, Chipotle Mexican Grill of Colorado, LLC, Chipotle Mexican Grill of Kansas, LLC, Chipotle Mexican Grill of Maryland, LLC, SP Kitchens, LLC and Chipotle Mexican Grill Texas Holdings, LLC.</v>
     <v>104958</v>
@@ -1735,24 +1919,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>610 Newport Center Dr, Suite 1100, NEWPORT BEACH, CA, 92660 US</v>
-    <v>1952.665</v>
+    <v>2238.5</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45226.998274050784</v>
+    <v>45258.012344027346</v>
     <v>0</v>
-    <v>1856.5</v>
-    <v>51880410000</v>
+    <v>2205.5</v>
+    <v>60630468425</v>
     <v>CHIPOTLE MEXICAN GRILL, INC.</v>
     <v>CHIPOTLE MEXICAN GRILL, INC.</v>
-    <v>1884.73</v>
-    <v>44.785299999999999</v>
-    <v>1806.47</v>
-    <v>1887.59</v>
-    <v>27485000</v>
+    <v>2222.98</v>
+    <v>52.415599999999998</v>
+    <v>2219.67</v>
+    <v>2209.19</v>
+    <v>2229.66</v>
+    <v>27444660</v>
     <v>CMG</v>
     <v>CHIPOTLE MEXICAN GRILL, INC. (XNYS:CMG)</v>
-    <v>905801</v>
-    <v>241723</v>
+    <v>207828</v>
+    <v>263138</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1784,6 +1969,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1804,6 +1991,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1820,7 +2008,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1831,13 +2019,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1903,13 +2094,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1954,6 +2151,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1961,6 +2161,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2346,9 +2549,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" workbookViewId="0">
+    <sheetView topLeftCell="A167" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S190" sqref="A190:S190"/>
+      <selection pane="topRight" activeCell="J196" sqref="J196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15662,1738 +15865,1921 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868FEC1-9E28-6A4C-9056-88538F76A38E}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="e" vm="1">
+    <row r="1" spans="1:18" s="119" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="118" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-    </row>
-    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" cm="1">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+    </row>
+    <row r="2" spans="1:18" s="119" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>51880410000</v>
-      </c>
-      <c r="B3" s="39" t="s">
+        <v>60630468425</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="53">
         <f>Financials!O8*0.01</f>
         <v>0.25670000000000004</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="53">
         <f>SUM(C11:E11)/3</f>
         <v>0.15882442548700917</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="55">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-5.8844833262569618E-4</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="43">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>35458954164.119331</v>
-      </c>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="56">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>34183599531.373341</v>
+      </c>
+      <c r="J3" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="117" t="s">
+      <c r="K3" s="58">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="O3" s="121"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="60">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-2531984000</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="40">
         <f>Financials!O17*0.01</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="40">
         <f>SUM(C13:E13)/3</f>
         <v>0.40945266913974221</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="63">
         <f>A5*(1+(5*G3))</f>
-        <v>27404132.487888914</v>
-      </c>
-      <c r="H4" s="52" t="s">
+        <v>27363911.177917603</v>
+      </c>
+      <c r="H4" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="53">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>29063486812.912285</v>
-      </c>
-      <c r="J4" s="50" t="s">
+      <c r="I4" s="39">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>27946101856.710411</v>
+      </c>
+      <c r="J4" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="54">
-        <f>(Financials!O172*-1)/Model!A3</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="119" t="s">
+      <c r="K4" s="64" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>-4.7210000000000004E-3</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="120"/>
-      <c r="P4" s="46"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" cm="1">
+      <c r="O4" s="123"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>27485000</v>
-      </c>
-      <c r="B5" s="48" t="s">
+        <v>27444660</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="40">
         <f>Financials!O34*0.01</f>
         <v>0.12</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="49">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="40">
+        <f>SUM(C16:E16)/3</f>
         <v>0.54825004778415287</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="63">
         <f>Financials!O56</f>
         <v>1356008000</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="39">
         <f>I4+G5-G6</f>
-        <v>26531502812.912285</v>
-      </c>
-      <c r="J5" s="50" t="s">
+        <v>25414117856.710411</v>
+      </c>
+      <c r="J5" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="56" cm="1">
+      <c r="K5" s="67" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>1887.59</v>
-      </c>
-      <c r="L5" s="39" t="s">
+        <v>2209.19</v>
+      </c>
+      <c r="L5" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="57" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="58">
+      <c r="O5" s="104">
         <f>Financials!O20</f>
         <v>0</v>
       </c>
-      <c r="P5" s="46"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59">
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="69">
         <f>O20/F10</f>
-        <v>5.2858288334182371</v>
-      </c>
-      <c r="B6" s="48" t="s">
+        <v>6.177327399388691</v>
+      </c>
+      <c r="B6" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="40">
         <f>Financials!O190</f>
         <v>0.13472060731428978</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="40">
         <f>Financials!O33/Financials!O126</f>
         <v>0.40272674768674965</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="63">
         <f>Financials!O96+Financials!O105</f>
         <v>3887992000</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="64">
         <f>N25</f>
-        <v>8.8825909515687751E-2</v>
-      </c>
-      <c r="J6" s="52" t="s">
+        <v>9.1207187979804746E-2</v>
+      </c>
+      <c r="J6" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="70">
         <f>I5/G4</f>
-        <v>968.15700422692521</v>
-      </c>
-      <c r="L6" s="63" t="s">
+        <v>928.74581018298818</v>
+      </c>
+      <c r="L6" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="64" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="65">
+      <c r="O6" s="104">
         <f>Financials!O96</f>
         <v>244061000</v>
       </c>
-      <c r="P6" s="46"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66">
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72">
         <f>O20/F12</f>
-        <v>43.12586034912718</v>
-      </c>
-      <c r="B7" s="67" t="s">
+        <v>50.399391874480465</v>
+      </c>
+      <c r="B7" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="68">
-        <f>F14/A3</f>
-        <v>1.9236548053494566E-2</v>
-      </c>
-      <c r="D7" s="69" t="s">
+      <c r="C7" s="74">
+        <f>F15/A3</f>
+        <v>1.6460370931069546E-2</v>
+      </c>
+      <c r="D7" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="75">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.16552696383014084</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="76">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>1.4051869140976534</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="78">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="75">
+      <c r="K7" s="80">
         <f>K6/K5-1</f>
-        <v>-0.48709359329784263</v>
-      </c>
-      <c r="L7" s="76" t="s">
+        <v>-0.57959894342134977</v>
+      </c>
+      <c r="L7" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="64" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="104">
         <f>Financials!O105</f>
         <v>3643931000</v>
       </c>
-      <c r="P7" s="46"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="78" t="s">
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="79">
+      <c r="O8" s="106">
         <f>O5/(O6+O7)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="46"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81">
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="85"/>
+      <c r="B9" s="86">
         <v>2019</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="86">
         <v>2020</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="86">
         <v>2021</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="87">
         <v>2022</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="41">
         <v>2023</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="42">
         <v>2024</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="42">
         <v>2025</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="42">
         <v>2026</v>
       </c>
-      <c r="J9" s="83">
+      <c r="J9" s="88">
         <v>2027</v>
       </c>
       <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="64" t="s">
+      <c r="L9" s="84"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="65">
+      <c r="O9" s="104">
         <f>Financials!O25</f>
         <v>353865000</v>
       </c>
-      <c r="P9" s="46"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="87">
+      <c r="B10" s="90">
         <v>5586369000</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="90">
         <v>5984634000</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="90">
         <v>7547061000</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="91">
         <v>8634652000</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="90">
         <v>9815000000</v>
       </c>
-      <c r="G10" s="87">
+      <c r="G10" s="90">
         <v>11085000000</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="90">
         <v>12503000000</v>
       </c>
-      <c r="I10" s="87">
+      <c r="I10" s="90">
         <v>14330000000</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="91">
         <v>16197000000</v>
       </c>
-      <c r="K10" s="89" t="s">
+      <c r="K10" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="64" t="s">
+      <c r="L10" s="84"/>
+      <c r="N10" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="65">
+      <c r="O10" s="104">
         <f>Financials!O24</f>
         <v>1468164000</v>
       </c>
-      <c r="P10" s="46"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91">
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="93"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>7.1292283055415684E-2</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="44">
         <f t="shared" si="0"/>
         <v>0.26107310823017738</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="44">
         <f t="shared" si="0"/>
         <v>0.14410788517543449</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>0.13669896598033127</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="44">
         <f t="shared" si="0"/>
         <v>0.12939378502292409</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="44">
         <f t="shared" si="0"/>
         <v>0.12792061344158778</v>
       </c>
-      <c r="I11" s="91">
+      <c r="I11" s="44">
         <f t="shared" si="0"/>
         <v>0.14612493001679594</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="94">
         <f t="shared" si="0"/>
         <v>0.13028611304954651</v>
       </c>
-      <c r="K11" s="93">
+      <c r="K11" s="94">
         <f>SUM(F11:J11)/5</f>
         <v>0.13408488150223713</v>
       </c>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="64" t="s">
+      <c r="L11" s="84"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="94">
+      <c r="O11" s="107">
         <f>O9/O10</f>
         <v>0.2410255257587027</v>
       </c>
-      <c r="P11" s="46"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="86" t="s">
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="87">
+      <c r="B12" s="90">
         <v>350158000</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="90">
         <v>355766000</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="90">
         <v>652984000</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="90">
         <v>899101000</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="95">
         <v>1203000000</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="90">
         <v>1442000000</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="90">
         <v>1743000000</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="90">
         <v>2102000000</v>
       </c>
-      <c r="J12" s="87">
+      <c r="J12" s="91">
         <v>2457000000</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="95" t="s">
+      <c r="L12" s="84"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="96">
+      <c r="O12" s="107">
         <f>O8*(1-O11)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="46"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91">
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="93"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>1.6015627231135587E-2</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="44">
         <f t="shared" si="1"/>
         <v>0.83543115418561631</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="44">
         <f t="shared" si="1"/>
         <v>0.37691122600247473</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="45">
         <f t="shared" si="1"/>
         <v>0.33800318317964284</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="44">
         <f t="shared" si="1"/>
         <v>0.19866999168744814</v>
       </c>
-      <c r="H13" s="91">
+      <c r="H13" s="44">
         <f t="shared" si="1"/>
         <v>0.20873786407766981</v>
       </c>
-      <c r="I13" s="91">
+      <c r="I13" s="44">
         <f t="shared" si="1"/>
         <v>0.20596672403901328</v>
       </c>
-      <c r="J13" s="91">
+      <c r="J13" s="94">
         <f t="shared" si="1"/>
         <v>0.16888677450047584</v>
       </c>
-      <c r="K13" s="93">
+      <c r="K13" s="94">
         <f>SUM(F13:J13)/5</f>
         <v>0.22405290749684997</v>
       </c>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="119" t="s">
+      <c r="L13" s="84"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="120"/>
-      <c r="P13" s="46"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86" t="s">
+      <c r="O13" s="123"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="48">
+        <f>B12/B10</f>
+        <v>6.2680786034721298E-2</v>
+      </c>
+      <c r="C14" s="48">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>5.9446576014506487E-2</v>
+      </c>
+      <c r="D14" s="48">
+        <f t="shared" si="2"/>
+        <v>8.6521627425563408E-2</v>
+      </c>
+      <c r="E14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.1041270684678433</v>
+      </c>
+      <c r="F14" s="49">
+        <f t="shared" si="2"/>
+        <v>0.12256749872643913</v>
+      </c>
+      <c r="G14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.13008570139828599</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.13940654242981684</v>
+      </c>
+      <c r="I14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.14668527564549896</v>
+      </c>
+      <c r="J14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.15169475828857196</v>
+      </c>
+      <c r="K14" s="50"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" s="107">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.4839999999999998E-2</v>
+      </c>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="89" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="87">
+      <c r="B15" s="90">
         <v>387720000</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C15" s="90">
         <v>290495000</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D15" s="90">
         <v>839606000</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E15" s="90">
         <v>844015000</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F15" s="95">
         <v>998000000</v>
       </c>
-      <c r="G14" s="87">
+      <c r="G15" s="90">
         <v>1259000000</v>
       </c>
-      <c r="H14" s="87">
+      <c r="H15" s="90">
         <v>1464000000</v>
       </c>
-      <c r="I14" s="87">
+      <c r="I15" s="90">
         <v>1880000000</v>
       </c>
-      <c r="J14" s="87">
+      <c r="J15" s="91">
         <v>2208000000</v>
       </c>
-      <c r="K14" s="89" t="s">
+      <c r="K15" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="64" t="s">
-        <v>242</v>
-      </c>
-      <c r="O14" s="94">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
-      </c>
-      <c r="P14" s="46"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="84"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="103" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="108" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.3333999999999999</v>
+      </c>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="97"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>-0.25076085835138762</v>
       </c>
-      <c r="D15" s="91">
-        <f t="shared" si="2"/>
+      <c r="D16" s="44">
+        <f t="shared" si="3"/>
         <v>1.8902597290831169</v>
       </c>
-      <c r="E15" s="91">
-        <f t="shared" si="2"/>
+      <c r="E16" s="44">
+        <f t="shared" si="3"/>
         <v>5.2512726207292193E-3</v>
       </c>
-      <c r="F15" s="92">
-        <f t="shared" si="2"/>
+      <c r="F16" s="45">
+        <f t="shared" si="3"/>
         <v>0.18244343998625623</v>
       </c>
-      <c r="G15" s="91">
-        <f t="shared" si="2"/>
+      <c r="G16" s="44">
+        <f t="shared" si="3"/>
         <v>0.26152304609218446</v>
       </c>
-      <c r="H15" s="91">
-        <f t="shared" si="2"/>
+      <c r="H16" s="44">
+        <f t="shared" si="3"/>
         <v>0.16282764098490876</v>
       </c>
-      <c r="I15" s="91">
-        <f t="shared" si="2"/>
+      <c r="I16" s="44">
+        <f t="shared" si="3"/>
         <v>0.28415300546448097</v>
       </c>
-      <c r="J15" s="91">
-        <f t="shared" si="2"/>
+      <c r="J16" s="94">
+        <f t="shared" si="3"/>
         <v>0.1744680851063829</v>
       </c>
-      <c r="K15" s="93">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="94">
+        <f>SUM(F16:J16)/5</f>
         <v>0.21308304352684265</v>
       </c>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="64" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="98" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.323</v>
-      </c>
-      <c r="P15" s="46"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="86" t="s">
+      <c r="L16" s="84"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="107">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="48">
+        <f>B15/B10</f>
+        <v>6.940465264646857E-2</v>
+      </c>
+      <c r="C17" s="48">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>4.854014464376602E-2</v>
+      </c>
+      <c r="D17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.11124939893820919</v>
+      </c>
+      <c r="E17" s="50">
+        <f t="shared" si="4"/>
+        <v>9.7747425142321889E-2</v>
+      </c>
+      <c r="F17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.10168110035659704</v>
+      </c>
+      <c r="G17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.11357690572846188</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.11709189794449332</v>
+      </c>
+      <c r="I17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.13119330076762037</v>
+      </c>
+      <c r="J17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.13632154102611596</v>
+      </c>
+      <c r="K17" s="50"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="109" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="110">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>9.7055944000000005E-2</v>
+      </c>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="99">
+      <c r="B18" s="99">
         <v>7.7249087503713162E-2</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C18" s="99">
         <v>4.6464566568679089E-2</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D18" s="99">
         <v>0.1062579327045383</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E18" s="99">
         <v>0.14528506174262426</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="64" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="94">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="104" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="105">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.5482650000000002E-2</v>
-      </c>
-      <c r="P17" s="46"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="119" t="s">
+      <c r="F18" s="100"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="120"/>
-      <c r="P18" s="46"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Hotels &amp; Entertainment Services</v>
-      </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="121" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1998</v>
-      </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="64" t="s">
+      <c r="O18" s="123"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="107">
+      <c r="O19" s="111">
         <f>O6+O7</f>
         <v>3887992000</v>
       </c>
-      <c r="P19" s="46"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="110" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="111" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>60630468425</v>
+      </c>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="124" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Hotels &amp; Entertainment Services</v>
+      </c>
+      <c r="B21" s="124"/>
+      <c r="C21" s="125" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1998</v>
+      </c>
+      <c r="D21" s="125"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="103" t="s">
+        <v>246</v>
+      </c>
+      <c r="O21" s="111">
+        <f>O19+O20</f>
+        <v>64518460425</v>
+      </c>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="124" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Chipotle Mexican Grill, Inc., together with its subsidiaries, owns and operates Chipotle Mexican Grill restaurants. The Company’s Chipotle Mexican Grill restaurants serve a relevant menu of burritos, burrito bowls (a burrito without the tortilla), quesadillas, tacos, and salads. The Company has approximately 3,200 restaurants in the United States, Canada, the United Kingdom, France and Germany. The Company manages its operations based on eight regions. It sells gift cards, which do not have expiration dates. In its Chipotle restaurants, the Company serves only meats and brands these meats as Responsibly Raised. The Company’s subsidiaries include Chipotle Mexican Grill Canada Corp., Chipotle Mexican Grill France SAS, Chipotle Mexican Grill Germany GMBH, Chipotle Mexican Grill of Berwyn Heights, LLC, Chipotle Mexican Grill of Colorado, LLC, Chipotle Mexican Grill of Kansas, LLC, Chipotle Mexican Grill of Maryland, LLC, SP Kitchens, LLC and Chipotle Mexican Grill Texas Holdings, LLC.</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="107" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>51880410000</v>
-      </c>
-      <c r="P20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="O21" s="107">
-        <f>O19+O20</f>
-        <v>55768402000</v>
-      </c>
-      <c r="P21" s="46"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="78" t="s">
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="108">
+      <c r="O22" s="112">
         <f>(O19/O21)</f>
-        <v>6.9716754659744418E-2</v>
-      </c>
-      <c r="P22" s="46"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="104" t="s">
+        <v>6.0261698347864753E-2</v>
+      </c>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="124"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="109" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="109">
+      <c r="O23" s="113">
         <f>O20/O21</f>
-        <v>0.93028324534025553</v>
-      </c>
-      <c r="P23" s="46"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="111" t="s">
+        <v>0.93973830165213523</v>
+      </c>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="124"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="114" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="112"/>
-      <c r="P24" s="46"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="110"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="113">
+      <c r="O24" s="115"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.8825909515687751E-2</v>
-      </c>
-      <c r="O25" s="114"/>
-      <c r="P25" s="46"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="110"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="110"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="85"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="85"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="85"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="85"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="85"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="85"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
-      <c r="P48" s="85"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="85"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="85"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="85"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="85"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
-      <c r="O54" s="85"/>
-      <c r="P54" s="85"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="85"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="85"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="85"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="85"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="85"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="85"/>
-      <c r="P59" s="85"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="85"/>
-      <c r="O60" s="85"/>
-      <c r="P60" s="85"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
-      <c r="P61" s="85"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
+        <v>9.1207187979804746E-2</v>
+      </c>
+      <c r="O25" s="117"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="124"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="124"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="124"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="124"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="124"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="46"/>
-      <c r="P68" s="46"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="46"/>
-      <c r="P77" s="46"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="46"/>
-      <c r="P83" s="46"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="46"/>
-      <c r="P84" s="46"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="46"/>
-      <c r="P85" s="46"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="46"/>
-      <c r="P86" s="46"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="46"/>
-      <c r="P89" s="46"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="46"/>
-      <c r="P93" s="46"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="46"/>
-      <c r="P94" s="46"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="46"/>
-      <c r="P97" s="46"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="46"/>
-      <c r="P98" s="46"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="46"/>
-      <c r="P99" s="46"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="46"/>
-      <c r="P100" s="46"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="46"/>
-      <c r="P101" s="46"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="46"/>
-      <c r="P102" s="46"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="46"/>
-      <c r="P103" s="46"/>
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="46"/>
-      <c r="P104" s="46"/>
+      <c r="O104" s="38"/>
+      <c r="P104" s="38"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="46"/>
-      <c r="P105" s="46"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="46"/>
-      <c r="P106" s="46"/>
+      <c r="O106" s="38"/>
+      <c r="P106" s="38"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="46"/>
-      <c r="P107" s="46"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="46"/>
-      <c r="P108" s="46"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="46"/>
-      <c r="P109" s="46"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -17401,8 +17787,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:CMG/explorer/revenue_proj" xr:uid="{0525870E-5E33-314A-999B-A32F6AF76F69}"/>

--- a/Consumer/Chipotle Mexican Grill.xlsx
+++ b/Consumer/Chipotle Mexican Grill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B313886-0DED-614E-990A-A7F2995B7F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06523B2C-573D-4947-9E56-5EB4B69CCBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1744,12 +1744,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Quality"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1767,7 +1769,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.4839999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1780,6 +1782,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1905,13 +1909,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2238.5</v>
+    <v>2248.39</v>
     <v>1344.05</v>
-    <v>1.3333999999999999</v>
-    <v>-10.48</v>
-    <v>-4.7210000000000004E-3</v>
-    <v>20.47</v>
-    <v>9.2659999999999999E-3</v>
+    <v>1.3387</v>
+    <v>16.760000000000002</v>
+    <v>7.528E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Chipotle Mexican Grill, Inc., together with its subsidiaries, owns and operates Chipotle Mexican Grill restaurants. The Company’s Chipotle Mexican Grill restaurants serve a relevant menu of burritos, burrito bowls (a burrito without the tortilla), quesadillas, tacos, and salads. The Company has approximately 3,200 restaurants in the United States, Canada, the United Kingdom, France and Germany. The Company manages its operations based on eight regions. It sells gift cards, which do not have expiration dates. In its Chipotle restaurants, the Company serves only meats and brands these meats as Responsibly Raised. The Company’s subsidiaries include Chipotle Mexican Grill Canada Corp., Chipotle Mexican Grill France SAS, Chipotle Mexican Grill Germany GMBH, Chipotle Mexican Grill of Berwyn Heights, LLC, Chipotle Mexican Grill of Colorado, LLC, Chipotle Mexican Grill of Kansas, LLC, Chipotle Mexican Grill of Maryland, LLC, SP Kitchens, LLC and Chipotle Mexican Grill Texas Holdings, LLC.</v>
     <v>104958</v>
@@ -1919,25 +1923,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>610 Newport Center Dr, Suite 1100, NEWPORT BEACH, CA, 92660 US</v>
-    <v>2238.5</v>
+    <v>2244.71</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45258.012344027346</v>
+    <v>45268.968087187503</v>
     <v>0</v>
-    <v>2205.5</v>
-    <v>60630468425</v>
+    <v>2221.4499999999998</v>
+    <v>61558646826</v>
     <v>CHIPOTLE MEXICAN GRILL, INC.</v>
     <v>CHIPOTLE MEXICAN GRILL, INC.</v>
-    <v>2222.98</v>
-    <v>52.415599999999998</v>
-    <v>2219.67</v>
-    <v>2209.19</v>
-    <v>2229.66</v>
+    <v>2224.17</v>
+    <v>52.820399999999999</v>
+    <v>2226.25</v>
+    <v>2243.0100000000002</v>
+    <v>2242.9499999999998</v>
     <v>27444660</v>
     <v>CMG</v>
     <v>CHIPOTLE MEXICAN GRILL, INC. (XNYS:CMG)</v>
-    <v>207828</v>
-    <v>263138</v>
+    <v>163445</v>
+    <v>196201</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2102,9 +2106,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -15868,7 +15872,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15917,7 +15921,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="51" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>60630468425</v>
+        <v>61558646826</v>
       </c>
       <c r="B3" s="52" t="s">
         <v>201</v>
@@ -15945,7 +15949,7 @@
       </c>
       <c r="I3" s="56">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>34183599531.373341</v>
+        <v>33458603196.880913</v>
       </c>
       <c r="J3" s="57" t="s">
         <v>205</v>
@@ -15997,14 +16001,14 @@
       </c>
       <c r="I4" s="39">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>27946101856.710411</v>
+        <v>27311204637.539715</v>
       </c>
       <c r="J4" s="62" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="64" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-4.7210000000000004E-3</v>
+        <v>7.528E-3</v>
       </c>
       <c r="L4" s="65" t="s">
         <v>251</v>
@@ -16049,14 +16053,14 @@
       </c>
       <c r="I5" s="39">
         <f>I4+G5-G6</f>
-        <v>25414117856.710411</v>
+        <v>24779220637.539715</v>
       </c>
       <c r="J5" s="62" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="67" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>2209.19</v>
+        <v>2243.0100000000002</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>219</v>
@@ -16076,7 +16080,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="69">
         <f>O20/F10</f>
-        <v>6.177327399388691</v>
+        <v>6.2718947352012222</v>
       </c>
       <c r="B6" s="61" t="s">
         <v>221</v>
@@ -16104,14 +16108,14 @@
       </c>
       <c r="I6" s="64">
         <f>N25</f>
-        <v>9.1207187979804746E-2</v>
+        <v>9.2641795644684319E-2</v>
       </c>
       <c r="J6" s="62" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="70">
         <f>I5/G4</f>
-        <v>928.74581018298818</v>
+        <v>905.54381924526535</v>
       </c>
       <c r="L6" s="71" t="s">
         <v>225</v>
@@ -16131,14 +16135,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72">
         <f>O20/F12</f>
-        <v>50.399391874480465</v>
+        <v>51.170944992518706</v>
       </c>
       <c r="B7" s="73" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="74">
         <f>F15/A3</f>
-        <v>1.6460370931069546E-2</v>
+        <v>1.6212182227151935E-2</v>
       </c>
       <c r="D7" s="73" t="s">
         <v>228</v>
@@ -16165,7 +16169,7 @@
       </c>
       <c r="K7" s="80">
         <f>K6/K5-1</f>
-        <v>-0.57959894342134977</v>
+        <v>-0.59628186265542049</v>
       </c>
       <c r="L7" s="81" t="s">
         <v>231</v>
@@ -16492,7 +16496,7 @@
       </c>
       <c r="O14" s="107">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.4839999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
@@ -16539,7 +16543,7 @@
       </c>
       <c r="O15" s="108" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.3333999999999999</v>
+        <v>1.3387</v>
       </c>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
@@ -16644,7 +16648,7 @@
       </c>
       <c r="O17" s="110">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.7055944000000005E-2</v>
+        <v>9.8492973000000011E-2</v>
       </c>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
@@ -16726,7 +16730,7 @@
       </c>
       <c r="O20" s="111" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>60630468425</v>
+        <v>61558646826</v>
       </c>
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
@@ -16756,7 +16760,7 @@
       </c>
       <c r="O21" s="111">
         <f>O19+O20</f>
-        <v>64518460425</v>
+        <v>65446638826</v>
       </c>
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
@@ -16784,7 +16788,7 @@
       </c>
       <c r="O22" s="112">
         <f>(O19/O21)</f>
-        <v>6.0261698347864753E-2</v>
+        <v>5.9407053895263094E-2</v>
       </c>
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
@@ -16809,7 +16813,7 @@
       </c>
       <c r="O23" s="113">
         <f>O20/O21</f>
-        <v>0.93973830165213523</v>
+        <v>0.94059294610473687</v>
       </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
@@ -16853,7 +16857,7 @@
       <c r="M25" s="43"/>
       <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.1207187979804746E-2</v>
+        <v>9.2641795644684319E-2</v>
       </c>
       <c r="O25" s="117"/>
       <c r="P25" s="38"/>
